--- a/result/modelos/catalogo_propuestos.xlsx
+++ b/result/modelos/catalogo_propuestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="613">
   <si>
     <t>pregunta</t>
   </si>
@@ -481,6 +481,624 @@
     <t>NEW_8260</t>
   </si>
   <si>
+    <t>NEW_3195</t>
+  </si>
+  <si>
+    <t>NEW_9099</t>
+  </si>
+  <si>
+    <t>NEW_8934</t>
+  </si>
+  <si>
+    <t>NEW_9156</t>
+  </si>
+  <si>
+    <t>NEW_4598</t>
+  </si>
+  <si>
+    <t>NEW_9310</t>
+  </si>
+  <si>
+    <t>NEW_3325</t>
+  </si>
+  <si>
+    <t>NEW_8230</t>
+  </si>
+  <si>
+    <t>NEW_1708</t>
+  </si>
+  <si>
+    <t>NEW_7318</t>
+  </si>
+  <si>
+    <t>NEW_9183</t>
+  </si>
+  <si>
+    <t>NEW_4911</t>
+  </si>
+  <si>
+    <t>NEW_4223</t>
+  </si>
+  <si>
+    <t>NEW_5991</t>
+  </si>
+  <si>
+    <t>NEW_9049</t>
+  </si>
+  <si>
+    <t>NEW_7327</t>
+  </si>
+  <si>
+    <t>NEW_8351</t>
+  </si>
+  <si>
+    <t>NEW_7618</t>
+  </si>
+  <si>
+    <t>NEW_8629</t>
+  </si>
+  <si>
+    <t>NEW_5566</t>
+  </si>
+  <si>
+    <t>NEW_2866</t>
+  </si>
+  <si>
+    <t>NEW_1762</t>
+  </si>
+  <si>
+    <t>NEW_2948</t>
+  </si>
+  <si>
+    <t>NEW_8450</t>
+  </si>
+  <si>
+    <t>NEW_5560</t>
+  </si>
+  <si>
+    <t>NEW_9997</t>
+  </si>
+  <si>
+    <t>NEW_2267</t>
+  </si>
+  <si>
+    <t>NEW_4816</t>
+  </si>
+  <si>
+    <t>NEW_9054</t>
+  </si>
+  <si>
+    <t>NEW_4276</t>
+  </si>
+  <si>
+    <t>NEW_2913</t>
+  </si>
+  <si>
+    <t>NEW_7462</t>
+  </si>
+  <si>
+    <t>NEW_4111</t>
+  </si>
+  <si>
+    <t>NEW_1413</t>
+  </si>
+  <si>
+    <t>NEW_3574</t>
+  </si>
+  <si>
+    <t>NEW_9246</t>
+  </si>
+  <si>
+    <t>NEW_1091</t>
+  </si>
+  <si>
+    <t>NEW_5319</t>
+  </si>
+  <si>
+    <t>NEW_4263</t>
+  </si>
+  <si>
+    <t>NEW_3503</t>
+  </si>
+  <si>
+    <t>NEW_5282</t>
+  </si>
+  <si>
+    <t>NEW_5995</t>
+  </si>
+  <si>
+    <t>NEW_3057</t>
+  </si>
+  <si>
+    <t>NEW_2569</t>
+  </si>
+  <si>
+    <t>NEW_9320</t>
+  </si>
+  <si>
+    <t>NEW_9894</t>
+  </si>
+  <si>
+    <t>NEW_5651</t>
+  </si>
+  <si>
+    <t>NEW_5703</t>
+  </si>
+  <si>
+    <t>NEW_2050</t>
+  </si>
+  <si>
+    <t>NEW_6725</t>
+  </si>
+  <si>
+    <t>NEW_6065</t>
+  </si>
+  <si>
+    <t>NEW_2067</t>
+  </si>
+  <si>
+    <t>NEW_3253</t>
+  </si>
+  <si>
+    <t>NEW_5790</t>
+  </si>
+  <si>
+    <t>NEW_8914</t>
+  </si>
+  <si>
+    <t>NEW_5924</t>
+  </si>
+  <si>
+    <t>NEW_8017</t>
+  </si>
+  <si>
+    <t>NEW_9175</t>
+  </si>
+  <si>
+    <t>NEW_3288</t>
+  </si>
+  <si>
+    <t>NEW_6206</t>
+  </si>
+  <si>
+    <t>NEW_3613</t>
+  </si>
+  <si>
+    <t>NEW_2482</t>
+  </si>
+  <si>
+    <t>NEW_7347</t>
+  </si>
+  <si>
+    <t>NEW_7679</t>
+  </si>
+  <si>
+    <t>NEW_2769</t>
+  </si>
+  <si>
+    <t>NEW_3252</t>
+  </si>
+  <si>
+    <t>NEW_7713</t>
+  </si>
+  <si>
+    <t>NEW_7054</t>
+  </si>
+  <si>
+    <t>NEW_6713</t>
+  </si>
+  <si>
+    <t>NEW_5813</t>
+  </si>
+  <si>
+    <t>NEW_6216</t>
+  </si>
+  <si>
+    <t>NEW_5418</t>
+  </si>
+  <si>
+    <t>NEW_5084</t>
+  </si>
+  <si>
+    <t>NEW_8727</t>
+  </si>
+  <si>
+    <t>NEW_8329</t>
+  </si>
+  <si>
+    <t>NEW_4495</t>
+  </si>
+  <si>
+    <t>NEW_5764</t>
+  </si>
+  <si>
+    <t>NEW_8802</t>
+  </si>
+  <si>
+    <t>NEW_1042</t>
+  </si>
+  <si>
+    <t>NEW_8360</t>
+  </si>
+  <si>
+    <t>NEW_9188</t>
+  </si>
+  <si>
+    <t>NEW_7754</t>
+  </si>
+  <si>
+    <t>NEW_7437</t>
+  </si>
+  <si>
+    <t>NEW_8192</t>
+  </si>
+  <si>
+    <t>NEW_5066</t>
+  </si>
+  <si>
+    <t>NEW_8071</t>
+  </si>
+  <si>
+    <t>NEW_6254</t>
+  </si>
+  <si>
+    <t>NEW_3774</t>
+  </si>
+  <si>
+    <t>NEW_5116</t>
+  </si>
+  <si>
+    <t>NEW_6661</t>
+  </si>
+  <si>
+    <t>NEW_8912</t>
+  </si>
+  <si>
+    <t>NEW_3357</t>
+  </si>
+  <si>
+    <t>NEW_8054</t>
+  </si>
+  <si>
+    <t>NEW_5533</t>
+  </si>
+  <si>
+    <t>NEW_1044</t>
+  </si>
+  <si>
+    <t>NEW_8815</t>
+  </si>
+  <si>
+    <t>NEW_3359</t>
+  </si>
+  <si>
+    <t>NEW_2979</t>
+  </si>
+  <si>
+    <t>NEW_4043</t>
+  </si>
+  <si>
+    <t>NEW_6962</t>
+  </si>
+  <si>
+    <t>NEW_4115</t>
+  </si>
+  <si>
+    <t>NEW_2710</t>
+  </si>
+  <si>
+    <t>NEW_6015</t>
+  </si>
+  <si>
+    <t>NEW_8093</t>
+  </si>
+  <si>
+    <t>NEW_5660</t>
+  </si>
+  <si>
+    <t>NEW_2368</t>
+  </si>
+  <si>
+    <t>NEW_7317</t>
+  </si>
+  <si>
+    <t>NEW_6135</t>
+  </si>
+  <si>
+    <t>NEW_1027</t>
+  </si>
+  <si>
+    <t>NEW_7097</t>
+  </si>
+  <si>
+    <t>NEW_9770</t>
+  </si>
+  <si>
+    <t>NEW_4918</t>
+  </si>
+  <si>
+    <t>NEW_2577</t>
+  </si>
+  <si>
+    <t>NEW_1519</t>
+  </si>
+  <si>
+    <t>NEW_4417</t>
+  </si>
+  <si>
+    <t>NEW_1918</t>
+  </si>
+  <si>
+    <t>NEW_6971</t>
+  </si>
+  <si>
+    <t>NEW_9250</t>
+  </si>
+  <si>
+    <t>NEW_9214</t>
+  </si>
+  <si>
+    <t>NEW_5728</t>
+  </si>
+  <si>
+    <t>NEW_3524</t>
+  </si>
+  <si>
+    <t>NEW_3137</t>
+  </si>
+  <si>
+    <t>NEW_5681</t>
+  </si>
+  <si>
+    <t>NEW_5285</t>
+  </si>
+  <si>
+    <t>NEW_4533</t>
+  </si>
+  <si>
+    <t>NEW_1435</t>
+  </si>
+  <si>
+    <t>NEW_6422</t>
+  </si>
+  <si>
+    <t>NEW_8635</t>
+  </si>
+  <si>
+    <t>NEW_3361</t>
+  </si>
+  <si>
+    <t>NEW_1839</t>
+  </si>
+  <si>
+    <t>NEW_8737</t>
+  </si>
+  <si>
+    <t>NEW_8043</t>
+  </si>
+  <si>
+    <t>NEW_6274</t>
+  </si>
+  <si>
+    <t>NEW_7626</t>
+  </si>
+  <si>
+    <t>NEW_3418</t>
+  </si>
+  <si>
+    <t>NEW_7554</t>
+  </si>
+  <si>
+    <t>NEW_5877</t>
+  </si>
+  <si>
+    <t>NEW_6340</t>
+  </si>
+  <si>
+    <t>NEW_8549</t>
+  </si>
+  <si>
+    <t>NEW_2562</t>
+  </si>
+  <si>
+    <t>NEW_7522</t>
+  </si>
+  <si>
+    <t>NEW_7881</t>
+  </si>
+  <si>
+    <t>NEW_2736</t>
+  </si>
+  <si>
+    <t>NEW_9636</t>
+  </si>
+  <si>
+    <t>NEW_8686</t>
+  </si>
+  <si>
+    <t>NEW_1278</t>
+  </si>
+  <si>
+    <t>NEW_2711</t>
+  </si>
+  <si>
+    <t>NEW_3263</t>
+  </si>
+  <si>
+    <t>NEW_4278</t>
+  </si>
+  <si>
+    <t>NEW_9823</t>
+  </si>
+  <si>
+    <t>NEW_9526</t>
+  </si>
+  <si>
+    <t>NEW_3343</t>
+  </si>
+  <si>
+    <t>NEW_1155</t>
+  </si>
+  <si>
+    <t>NEW_8736</t>
+  </si>
+  <si>
+    <t>NEW_4550</t>
+  </si>
+  <si>
+    <t>NEW_7539</t>
+  </si>
+  <si>
+    <t>NEW_3107</t>
+  </si>
+  <si>
+    <t>NEW_8422</t>
+  </si>
+  <si>
+    <t>NEW_9841</t>
+  </si>
+  <si>
+    <t>NEW_1838</t>
+  </si>
+  <si>
+    <t>NEW_5954</t>
+  </si>
+  <si>
+    <t>NEW_8377</t>
+  </si>
+  <si>
+    <t>NEW_3724</t>
+  </si>
+  <si>
+    <t>NEW_9682</t>
+  </si>
+  <si>
+    <t>NEW_4160</t>
+  </si>
+  <si>
+    <t>NEW_9300</t>
+  </si>
+  <si>
+    <t>NEW_8414</t>
+  </si>
+  <si>
+    <t>NEW_3817</t>
+  </si>
+  <si>
+    <t>NEW_8822</t>
+  </si>
+  <si>
+    <t>NEW_9350</t>
+  </si>
+  <si>
+    <t>NEW_5287</t>
+  </si>
+  <si>
+    <t>NEW_5592</t>
+  </si>
+  <si>
+    <t>NEW_5539</t>
+  </si>
+  <si>
+    <t>NEW_9964</t>
+  </si>
+  <si>
+    <t>NEW_9055</t>
+  </si>
+  <si>
+    <t>NEW_3738</t>
+  </si>
+  <si>
+    <t>NEW_1167</t>
+  </si>
+  <si>
+    <t>NEW_9563</t>
+  </si>
+  <si>
+    <t>NEW_4639</t>
+  </si>
+  <si>
+    <t>NEW_6205</t>
+  </si>
+  <si>
+    <t>NEW_3967</t>
+  </si>
+  <si>
+    <t>NEW_1612</t>
+  </si>
+  <si>
+    <t>NEW_1264</t>
+  </si>
+  <si>
+    <t>NEW_3706</t>
+  </si>
+  <si>
+    <t>NEW_1064</t>
+  </si>
+  <si>
+    <t>NEW_2608</t>
+  </si>
+  <si>
+    <t>NEW_4679</t>
+  </si>
+  <si>
+    <t>NEW_7815</t>
+  </si>
+  <si>
+    <t>NEW_7468</t>
+  </si>
+  <si>
+    <t>NEW_7345</t>
+  </si>
+  <si>
+    <t>NEW_1685</t>
+  </si>
+  <si>
+    <t>NEW_6367</t>
+  </si>
+  <si>
+    <t>NEW_8251</t>
+  </si>
+  <si>
+    <t>NEW_3154</t>
+  </si>
+  <si>
+    <t>NEW_4529</t>
+  </si>
+  <si>
+    <t>NEW_5422</t>
+  </si>
+  <si>
+    <t>NEW_8045</t>
+  </si>
+  <si>
+    <t>NEW_6220</t>
+  </si>
+  <si>
+    <t>NEW_2614</t>
+  </si>
+  <si>
+    <t>NEW_9255</t>
+  </si>
+  <si>
+    <t>NEW_6504</t>
+  </si>
+  <si>
+    <t>NEW_2630</t>
+  </si>
+  <si>
+    <t>NEW_4087</t>
+  </si>
+  <si>
+    <t>NEW_8544</t>
+  </si>
+  <si>
+    <t>NEW_5608</t>
+  </si>
+  <si>
+    <t>NEW_3517</t>
+  </si>
+  <si>
     <t>Referencia a la c mara</t>
   </si>
   <si>
@@ -772,6 +1390,96 @@
     <t>Opinión sobre si una de</t>
   </si>
   <si>
+    <t>Mención de qu es la</t>
+  </si>
+  <si>
+    <t>Referencia a me parece que</t>
+  </si>
+  <si>
+    <t>Opinión sobre juan carlos lozada</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con con manuel cort</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con creo que para</t>
+  </si>
+  <si>
+    <t>Referencia a ha sido clave</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con si una de</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con considero que hay</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con ninguno de los</t>
+  </si>
+  <si>
+    <t>Referencia a porque no veo</t>
+  </si>
+  <si>
+    <t>Comentario sobre sueldos cada vez</t>
+  </si>
+  <si>
+    <t>Comentario sobre luz aida pastrana</t>
+  </si>
+  <si>
+    <t>Opinión sobre por lo que</t>
+  </si>
+  <si>
+    <t>Referencia a se ha visto</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con han logrado abrirse</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con regular</t>
+  </si>
+  <si>
+    <t>Comentario sobre considero que hay</t>
+  </si>
+  <si>
+    <t>Opinión sobre no tengo acercamiento</t>
+  </si>
+  <si>
+    <t>Referencia a creo que para</t>
+  </si>
+  <si>
+    <t>Opinión sobre sueldos cada vez</t>
+  </si>
+  <si>
+    <t>Mención de el gobierno actual</t>
+  </si>
+  <si>
+    <t>Opinión sobre porque han evitado</t>
+  </si>
+  <si>
+    <t>Comentario sobre con manuel cort</t>
+  </si>
+  <si>
+    <t>Opinión sobre ninguno de los</t>
+  </si>
+  <si>
+    <t>Comentario sobre prometieron mucho y</t>
+  </si>
+  <si>
+    <t>Mención de han logrado abrirse</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con juan carlos lozada</t>
+  </si>
+  <si>
+    <t>Referencia a est s personas</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con prometieron mucho y</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con ha sido clave</t>
+  </si>
+  <si>
     <t>2025-09-24 21:27:21</t>
   </si>
   <si>
@@ -920,6 +1628,228 @@
   </si>
   <si>
     <t>2025-09-24 22:03:56</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:06</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:07</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:08</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:09</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:12</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:13</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:16</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:22</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:23</t>
+  </si>
+  <si>
+    <t>2025-10-01 11:44:24</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:07</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:08</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:09</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:10</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:13</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:14</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:15</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:18</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:19</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:24</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:07:25</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:20:50</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:20:51</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:20:52</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:20:53</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:20:56</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:20:57</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:20:58</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:21:01</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:21:02</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:21:08</t>
+  </si>
+  <si>
+    <t>2025-10-01 12:21:09</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:40</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:41</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:42</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:44</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:45</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:48</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:49</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:50</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:54</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:48:55</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:49:01</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:49:02</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:44</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:45</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:46</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:47</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:49</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:50</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:53</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:54</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:58</t>
+  </si>
+  <si>
+    <t>2025-10-01 14:57:59</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:09</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:10</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:11</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:12</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:13</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:15</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:16</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:19</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:20</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:05:25</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:44</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:45</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:46</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:47</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:51</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:52</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:53</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:23:57</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:24:06</t>
+  </si>
+  <si>
+    <t>2025-10-01 15:24:07</t>
   </si>
   <si>
     <t>pendiente</t>
@@ -1280,7 +2210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1311,13 +2241,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="E2" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1328,13 +2258,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="E3" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1345,13 +2275,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="E4" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1362,13 +2292,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>363</v>
       </c>
       <c r="D5" t="s">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1379,13 +2309,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="E6" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1396,13 +2326,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>158</v>
+        <v>364</v>
       </c>
       <c r="D7" t="s">
-        <v>253</v>
+        <v>489</v>
       </c>
       <c r="E7" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1413,13 +2343,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>365</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>490</v>
       </c>
       <c r="E8" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1430,13 +2360,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>160</v>
+        <v>366</v>
       </c>
       <c r="D9" t="s">
-        <v>255</v>
+        <v>491</v>
       </c>
       <c r="E9" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1447,13 +2377,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>161</v>
+        <v>367</v>
       </c>
       <c r="D10" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1464,13 +2394,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>368</v>
       </c>
       <c r="D11" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="E11" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1481,13 +2411,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="D12" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="E12" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1498,13 +2428,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>164</v>
+        <v>370</v>
       </c>
       <c r="D13" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="E13" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1515,13 +2445,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>492</v>
       </c>
       <c r="E14" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1532,13 +2462,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>166</v>
+        <v>372</v>
       </c>
       <c r="D15" t="s">
-        <v>257</v>
+        <v>493</v>
       </c>
       <c r="E15" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1549,13 +2479,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>373</v>
       </c>
       <c r="D16" t="s">
-        <v>258</v>
+        <v>494</v>
       </c>
       <c r="E16" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1566,13 +2496,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>494</v>
       </c>
       <c r="E17" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1583,13 +2513,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="E18" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1600,13 +2530,13 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="D19" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1617,13 +2547,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>171</v>
+        <v>377</v>
       </c>
       <c r="D20" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="E20" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1634,13 +2564,13 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="D21" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="E21" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1651,13 +2581,13 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>379</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>495</v>
       </c>
       <c r="E22" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1668,13 +2598,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="D23" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="E23" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1685,13 +2615,13 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="D24" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="E24" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1702,13 +2632,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="D25" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="E25" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1719,13 +2649,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="E26" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1736,13 +2666,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>384</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="E27" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1753,13 +2683,13 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>385</v>
       </c>
       <c r="D28" t="s">
-        <v>260</v>
+        <v>496</v>
       </c>
       <c r="E28" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1770,13 +2700,13 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>386</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>497</v>
       </c>
       <c r="E29" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1787,13 +2717,13 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="D30" t="s">
-        <v>261</v>
+        <v>497</v>
       </c>
       <c r="E30" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1804,13 +2734,13 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>388</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>497</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1821,13 +2751,13 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="D32" t="s">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="E32" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1838,13 +2768,13 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="D33" t="s">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="E33" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1855,13 +2785,13 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D34" t="s">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="E34" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1872,13 +2802,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="D35" t="s">
-        <v>262</v>
+        <v>498</v>
       </c>
       <c r="E35" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1889,13 +2819,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="D36" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
       <c r="E36" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1906,13 +2836,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>186</v>
+        <v>392</v>
       </c>
       <c r="D37" t="s">
-        <v>263</v>
+        <v>499</v>
       </c>
       <c r="E37" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1923,13 +2853,13 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>187</v>
+        <v>393</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>500</v>
       </c>
       <c r="E38" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1940,13 +2870,13 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="D39" t="s">
-        <v>265</v>
+        <v>501</v>
       </c>
       <c r="E39" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1957,13 +2887,13 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>395</v>
       </c>
       <c r="D40" t="s">
-        <v>266</v>
+        <v>502</v>
       </c>
       <c r="E40" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1974,13 +2904,13 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>190</v>
+        <v>396</v>
       </c>
       <c r="D41" t="s">
-        <v>266</v>
+        <v>502</v>
       </c>
       <c r="E41" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1991,13 +2921,13 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>191</v>
+        <v>397</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>502</v>
       </c>
       <c r="E42" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2008,13 +2938,13 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>192</v>
+        <v>398</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>502</v>
       </c>
       <c r="E43" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2025,13 +2955,13 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>193</v>
+        <v>399</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>503</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2042,13 +2972,13 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>503</v>
       </c>
       <c r="E45" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2059,13 +2989,13 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="E46" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2076,13 +3006,13 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="E47" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2093,13 +3023,13 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="E48" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2110,13 +3040,13 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>402</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="E49" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2127,13 +3057,13 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="E50" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2144,13 +3074,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>378</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="E51" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2161,13 +3091,13 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>504</v>
       </c>
       <c r="E52" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2178,13 +3108,13 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>380</v>
       </c>
       <c r="D53" t="s">
-        <v>269</v>
+        <v>505</v>
       </c>
       <c r="E53" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2195,13 +3125,13 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>381</v>
       </c>
       <c r="D54" t="s">
-        <v>269</v>
+        <v>505</v>
       </c>
       <c r="E54" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2212,13 +3142,13 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>382</v>
       </c>
       <c r="D55" t="s">
-        <v>269</v>
+        <v>505</v>
       </c>
       <c r="E55" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2229,13 +3159,13 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="D56" t="s">
-        <v>270</v>
+        <v>506</v>
       </c>
       <c r="E56" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2246,13 +3176,13 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="D57" t="s">
-        <v>270</v>
+        <v>506</v>
       </c>
       <c r="E57" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2263,13 +3193,13 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>201</v>
+        <v>407</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>506</v>
       </c>
       <c r="E58" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2280,13 +3210,13 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="D59" t="s">
-        <v>270</v>
+        <v>506</v>
       </c>
       <c r="E59" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2297,13 +3227,13 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>203</v>
+        <v>409</v>
       </c>
       <c r="D60" t="s">
-        <v>270</v>
+        <v>506</v>
       </c>
       <c r="E60" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2314,13 +3244,13 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>204</v>
+        <v>410</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
+        <v>506</v>
       </c>
       <c r="E61" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2331,13 +3261,13 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="D62" t="s">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="E62" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2348,13 +3278,13 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D63" t="s">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2365,13 +3295,13 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D64" t="s">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="E64" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2382,13 +3312,13 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>205</v>
+        <v>411</v>
       </c>
       <c r="D65" t="s">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2399,13 +3329,13 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="D66" t="s">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="E66" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2416,13 +3346,13 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>392</v>
       </c>
       <c r="D67" t="s">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="E67" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2433,13 +3363,13 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>509</v>
       </c>
       <c r="E68" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2450,13 +3380,13 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>413</v>
       </c>
       <c r="D69" t="s">
-        <v>274</v>
+        <v>510</v>
       </c>
       <c r="E69" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2467,13 +3397,13 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="D70" t="s">
-        <v>275</v>
+        <v>511</v>
       </c>
       <c r="E70" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2484,13 +3414,13 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="D71" t="s">
-        <v>275</v>
+        <v>511</v>
       </c>
       <c r="E71" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2501,13 +3431,13 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="D72" t="s">
-        <v>275</v>
+        <v>511</v>
       </c>
       <c r="E72" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2518,13 +3448,13 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>210</v>
+        <v>416</v>
       </c>
       <c r="D73" t="s">
-        <v>275</v>
+        <v>511</v>
       </c>
       <c r="E73" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2535,13 +3465,13 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="D74" t="s">
-        <v>276</v>
+        <v>512</v>
       </c>
       <c r="E74" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2552,13 +3482,13 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>417</v>
       </c>
       <c r="D75" t="s">
-        <v>276</v>
+        <v>512</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2569,13 +3499,13 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>418</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>513</v>
       </c>
       <c r="E76" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2586,13 +3516,13 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>213</v>
+        <v>419</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>513</v>
       </c>
       <c r="E77" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2603,13 +3533,13 @@
         <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>375</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>513</v>
       </c>
       <c r="E78" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2620,13 +3550,13 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>376</v>
       </c>
       <c r="D79" t="s">
-        <v>277</v>
+        <v>513</v>
       </c>
       <c r="E79" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2637,13 +3567,13 @@
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>420</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>513</v>
       </c>
       <c r="E80" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2654,13 +3584,13 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>215</v>
+        <v>421</v>
       </c>
       <c r="D81" t="s">
-        <v>278</v>
+        <v>514</v>
       </c>
       <c r="E81" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2671,13 +3601,13 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>514</v>
       </c>
       <c r="E82" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2688,13 +3618,13 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>216</v>
+        <v>422</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E83" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2705,13 +3635,13 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="D84" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E84" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2722,13 +3652,13 @@
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>218</v>
+        <v>424</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E85" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2739,13 +3669,13 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="D86" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E86" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2756,13 +3686,13 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>426</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E87" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2773,13 +3703,13 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>407</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E88" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2790,13 +3720,13 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E89" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2807,13 +3737,13 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E90" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2824,13 +3754,13 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>222</v>
+        <v>428</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>515</v>
       </c>
       <c r="E91" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2841,13 +3771,13 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>516</v>
       </c>
       <c r="E92" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2858,13 +3788,13 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="D93" t="s">
-        <v>281</v>
+        <v>517</v>
       </c>
       <c r="E93" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2875,13 +3805,13 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D94" t="s">
-        <v>281</v>
+        <v>517</v>
       </c>
       <c r="E94" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2892,13 +3822,13 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
       <c r="D95" t="s">
-        <v>281</v>
+        <v>517</v>
       </c>
       <c r="E95" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2909,13 +3839,13 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="D96" t="s">
-        <v>281</v>
+        <v>517</v>
       </c>
       <c r="E96" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2926,13 +3856,13 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>430</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>518</v>
       </c>
       <c r="E97" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2943,13 +3873,13 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="D98" t="s">
-        <v>283</v>
+        <v>519</v>
       </c>
       <c r="E98" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2960,13 +3890,13 @@
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>432</v>
       </c>
       <c r="D99" t="s">
-        <v>284</v>
+        <v>520</v>
       </c>
       <c r="E99" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2977,13 +3907,13 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>433</v>
       </c>
       <c r="D100" t="s">
-        <v>285</v>
+        <v>521</v>
       </c>
       <c r="E100" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2994,13 +3924,13 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>228</v>
+        <v>434</v>
       </c>
       <c r="D101" t="s">
-        <v>285</v>
+        <v>521</v>
       </c>
       <c r="E101" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3011,13 +3941,13 @@
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>163</v>
+        <v>369</v>
       </c>
       <c r="D102" t="s">
-        <v>285</v>
+        <v>521</v>
       </c>
       <c r="E102" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3028,13 +3958,13 @@
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>398</v>
       </c>
       <c r="D103" t="s">
-        <v>285</v>
+        <v>521</v>
       </c>
       <c r="E103" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3045,13 +3975,13 @@
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="D104" t="s">
-        <v>286</v>
+        <v>522</v>
       </c>
       <c r="E104" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3062,13 +3992,13 @@
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>435</v>
       </c>
       <c r="D105" t="s">
-        <v>287</v>
+        <v>523</v>
       </c>
       <c r="E105" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3079,13 +4009,13 @@
         <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="D106" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E106" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3096,13 +4026,13 @@
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="D107" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E107" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3113,13 +4043,13 @@
         <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="D108" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E108" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3130,13 +4060,13 @@
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>231</v>
+        <v>437</v>
       </c>
       <c r="D109" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E109" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3147,13 +4077,13 @@
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>232</v>
+        <v>438</v>
       </c>
       <c r="D110" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E110" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3164,13 +4094,13 @@
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>233</v>
+        <v>439</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E111" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3181,13 +4111,13 @@
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>198</v>
+        <v>404</v>
       </c>
       <c r="D112" t="s">
-        <v>288</v>
+        <v>524</v>
       </c>
       <c r="E112" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3198,13 +4128,13 @@
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>440</v>
       </c>
       <c r="D113" t="s">
-        <v>289</v>
+        <v>525</v>
       </c>
       <c r="E113" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3215,13 +4145,13 @@
         <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>441</v>
       </c>
       <c r="D114" t="s">
-        <v>289</v>
+        <v>525</v>
       </c>
       <c r="E114" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3232,13 +4162,13 @@
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>218</v>
+        <v>424</v>
       </c>
       <c r="D115" t="s">
-        <v>289</v>
+        <v>525</v>
       </c>
       <c r="E115" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3249,13 +4179,13 @@
         <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>236</v>
+        <v>442</v>
       </c>
       <c r="D116" t="s">
-        <v>289</v>
+        <v>525</v>
       </c>
       <c r="E116" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3266,13 +4196,13 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>220</v>
+        <v>426</v>
       </c>
       <c r="D117" t="s">
-        <v>289</v>
+        <v>525</v>
       </c>
       <c r="E117" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3283,13 +4213,13 @@
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>201</v>
+        <v>407</v>
       </c>
       <c r="D118" t="s">
-        <v>289</v>
+        <v>525</v>
       </c>
       <c r="E118" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3300,13 +4230,13 @@
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>237</v>
+        <v>443</v>
       </c>
       <c r="D119" t="s">
-        <v>289</v>
+        <v>525</v>
       </c>
       <c r="E119" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3317,13 +4247,13 @@
         <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>203</v>
+        <v>409</v>
       </c>
       <c r="D120" t="s">
-        <v>290</v>
+        <v>526</v>
       </c>
       <c r="E120" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3334,13 +4264,13 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>238</v>
+        <v>444</v>
       </c>
       <c r="D121" t="s">
-        <v>290</v>
+        <v>526</v>
       </c>
       <c r="E121" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3351,13 +4281,13 @@
         <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>390</v>
       </c>
       <c r="D122" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
       <c r="E122" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3368,13 +4298,13 @@
         <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="D123" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
       <c r="E123" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3385,13 +4315,13 @@
         <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="D124" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
       <c r="E124" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3402,13 +4332,13 @@
         <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>239</v>
+        <v>445</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
       <c r="E125" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3419,13 +4349,13 @@
         <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>429</v>
       </c>
       <c r="D126" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
       <c r="E126" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3436,13 +4366,13 @@
         <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>240</v>
+        <v>446</v>
       </c>
       <c r="D127" t="s">
-        <v>292</v>
+        <v>528</v>
       </c>
       <c r="E127" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3453,13 +4383,13 @@
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>225</v>
+        <v>431</v>
       </c>
       <c r="D128" t="s">
-        <v>293</v>
+        <v>529</v>
       </c>
       <c r="E128" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3470,13 +4400,13 @@
         <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>188</v>
+        <v>394</v>
       </c>
       <c r="D129" t="s">
-        <v>294</v>
+        <v>530</v>
       </c>
       <c r="E129" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3487,13 +4417,13 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>447</v>
       </c>
       <c r="D130" t="s">
-        <v>295</v>
+        <v>531</v>
       </c>
       <c r="E130" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3504,13 +4434,13 @@
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>242</v>
+        <v>448</v>
       </c>
       <c r="D131" t="s">
-        <v>295</v>
+        <v>531</v>
       </c>
       <c r="E131" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3521,13 +4451,13 @@
         <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>449</v>
       </c>
       <c r="D132" t="s">
-        <v>295</v>
+        <v>531</v>
       </c>
       <c r="E132" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3538,13 +4468,13 @@
         <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>210</v>
+        <v>416</v>
       </c>
       <c r="D133" t="s">
-        <v>295</v>
+        <v>531</v>
       </c>
       <c r="E133" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3555,13 +4485,13 @@
         <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>244</v>
+        <v>450</v>
       </c>
       <c r="D134" t="s">
-        <v>296</v>
+        <v>532</v>
       </c>
       <c r="E134" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3572,13 +4502,13 @@
         <v>78</v>
       </c>
       <c r="C135" t="s">
-        <v>245</v>
+        <v>451</v>
       </c>
       <c r="D135" t="s">
-        <v>297</v>
+        <v>533</v>
       </c>
       <c r="E135" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3589,13 +4519,13 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="D136" t="s">
-        <v>298</v>
+        <v>534</v>
       </c>
       <c r="E136" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3606,13 +4536,13 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>246</v>
+        <v>452</v>
       </c>
       <c r="D137" t="s">
-        <v>298</v>
+        <v>534</v>
       </c>
       <c r="E137" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3623,13 +4553,13 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>247</v>
+        <v>453</v>
       </c>
       <c r="D138" t="s">
-        <v>299</v>
+        <v>535</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3640,13 +4570,13 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>248</v>
+        <v>454</v>
       </c>
       <c r="D139" t="s">
-        <v>299</v>
+        <v>535</v>
       </c>
       <c r="E139" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3657,13 +4587,13 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>197</v>
+        <v>403</v>
       </c>
       <c r="D140" t="s">
-        <v>299</v>
+        <v>535</v>
       </c>
       <c r="E140" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3674,13 +4604,13 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>421</v>
       </c>
       <c r="D141" t="s">
-        <v>299</v>
+        <v>535</v>
       </c>
       <c r="E141" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3691,13 +4621,13 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>249</v>
+        <v>455</v>
       </c>
       <c r="D142" t="s">
-        <v>299</v>
+        <v>535</v>
       </c>
       <c r="E142" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3708,13 +4638,13 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>216</v>
+        <v>422</v>
       </c>
       <c r="D143" t="s">
-        <v>300</v>
+        <v>536</v>
       </c>
       <c r="E143" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3725,13 +4655,13 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>235</v>
+        <v>441</v>
       </c>
       <c r="D144" t="s">
-        <v>300</v>
+        <v>536</v>
       </c>
       <c r="E144" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3742,13 +4672,13 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>218</v>
+        <v>424</v>
       </c>
       <c r="D145" t="s">
-        <v>300</v>
+        <v>536</v>
       </c>
       <c r="E145" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3759,13 +4689,13 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="D146" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="E146" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3776,13 +4706,13 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>200</v>
+        <v>406</v>
       </c>
       <c r="D147" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="E147" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3793,13 +4723,13 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>250</v>
+        <v>456</v>
       </c>
       <c r="D148" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="E148" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3810,13 +4740,13 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>202</v>
+        <v>408</v>
       </c>
       <c r="D149" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="E149" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3827,13 +4757,13 @@
         <v>56</v>
       </c>
       <c r="C150" t="s">
-        <v>251</v>
+        <v>457</v>
       </c>
       <c r="D150" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="E150" t="s">
-        <v>302</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3844,13 +4774,3583 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
+        <v>444</v>
+      </c>
+      <c r="D151" t="s">
+        <v>537</v>
+      </c>
+      <c r="E151" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152" t="s">
+        <v>390</v>
+      </c>
+      <c r="D152" t="s">
+        <v>538</v>
+      </c>
+      <c r="E152" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153" t="s">
+        <v>389</v>
+      </c>
+      <c r="D153" t="s">
+        <v>538</v>
+      </c>
+      <c r="E153" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" t="s">
+        <v>389</v>
+      </c>
+      <c r="D154" t="s">
+        <v>538</v>
+      </c>
+      <c r="E154" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>158</v>
+      </c>
+      <c r="C155" t="s">
+        <v>458</v>
+      </c>
+      <c r="D155" t="s">
+        <v>538</v>
+      </c>
+      <c r="E155" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" t="s">
+        <v>390</v>
+      </c>
+      <c r="D156" t="s">
+        <v>538</v>
+      </c>
+      <c r="E156" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>160</v>
+      </c>
+      <c r="C157" t="s">
+        <v>364</v>
+      </c>
+      <c r="D157" t="s">
+        <v>539</v>
+      </c>
+      <c r="E157" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158" t="s">
+        <v>393</v>
+      </c>
+      <c r="D158" t="s">
+        <v>540</v>
+      </c>
+      <c r="E158" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159" t="s">
+        <v>459</v>
+      </c>
+      <c r="D159" t="s">
+        <v>541</v>
+      </c>
+      <c r="E159" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160" t="s">
+        <v>433</v>
+      </c>
+      <c r="D160" t="s">
+        <v>542</v>
+      </c>
+      <c r="E160" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161" t="s">
+        <v>415</v>
+      </c>
+      <c r="D161" t="s">
+        <v>542</v>
+      </c>
+      <c r="E161" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>397</v>
+      </c>
+      <c r="D162" t="s">
+        <v>542</v>
+      </c>
+      <c r="E162" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>166</v>
+      </c>
+      <c r="C163" t="s">
+        <v>460</v>
+      </c>
+      <c r="D163" t="s">
+        <v>542</v>
+      </c>
+      <c r="E163" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>167</v>
+      </c>
+      <c r="C164" t="s">
+        <v>461</v>
+      </c>
+      <c r="D164" t="s">
+        <v>542</v>
+      </c>
+      <c r="E164" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>168</v>
+      </c>
+      <c r="C165" t="s">
+        <v>372</v>
+      </c>
+      <c r="D165" t="s">
+        <v>543</v>
+      </c>
+      <c r="E165" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>94</v>
+      </c>
+      <c r="C166" t="s">
+        <v>418</v>
+      </c>
+      <c r="D166" t="s">
+        <v>544</v>
+      </c>
+      <c r="E166" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>169</v>
+      </c>
+      <c r="C167" t="s">
+        <v>419</v>
+      </c>
+      <c r="D167" t="s">
+        <v>544</v>
+      </c>
+      <c r="E167" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>170</v>
+      </c>
+      <c r="C168" t="s">
+        <v>453</v>
+      </c>
+      <c r="D168" t="s">
+        <v>544</v>
+      </c>
+      <c r="E168" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>171</v>
+      </c>
+      <c r="C169" t="s">
+        <v>437</v>
+      </c>
+      <c r="D169" t="s">
+        <v>544</v>
+      </c>
+      <c r="E169" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>172</v>
+      </c>
+      <c r="C170" t="s">
+        <v>438</v>
+      </c>
+      <c r="D170" t="s">
+        <v>544</v>
+      </c>
+      <c r="E170" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>173</v>
+      </c>
+      <c r="C171" t="s">
+        <v>421</v>
+      </c>
+      <c r="D171" t="s">
+        <v>544</v>
+      </c>
+      <c r="E171" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>462</v>
+      </c>
+      <c r="D172" t="s">
+        <v>544</v>
+      </c>
+      <c r="E172" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>175</v>
+      </c>
+      <c r="C173" t="s">
+        <v>440</v>
+      </c>
+      <c r="D173" t="s">
+        <v>545</v>
+      </c>
+      <c r="E173" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>176</v>
+      </c>
+      <c r="C174" t="s">
+        <v>441</v>
+      </c>
+      <c r="D174" t="s">
+        <v>546</v>
+      </c>
+      <c r="E174" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>177</v>
+      </c>
+      <c r="C175" t="s">
+        <v>424</v>
+      </c>
+      <c r="D175" t="s">
+        <v>546</v>
+      </c>
+      <c r="E175" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>178</v>
+      </c>
+      <c r="C176" t="s">
+        <v>383</v>
+      </c>
+      <c r="D176" t="s">
+        <v>546</v>
+      </c>
+      <c r="E176" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>179</v>
+      </c>
+      <c r="C177" t="s">
+        <v>426</v>
+      </c>
+      <c r="D177" t="s">
+        <v>546</v>
+      </c>
+      <c r="E177" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" t="s">
+        <v>463</v>
+      </c>
+      <c r="D178" t="s">
+        <v>546</v>
+      </c>
+      <c r="E178" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>181</v>
+      </c>
+      <c r="C179" t="s">
+        <v>386</v>
+      </c>
+      <c r="D179" t="s">
+        <v>546</v>
+      </c>
+      <c r="E179" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>182</v>
+      </c>
+      <c r="C180" t="s">
+        <v>464</v>
+      </c>
+      <c r="D180" t="s">
+        <v>547</v>
+      </c>
+      <c r="E180" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>183</v>
+      </c>
+      <c r="C181" t="s">
+        <v>428</v>
+      </c>
+      <c r="D181" t="s">
+        <v>547</v>
+      </c>
+      <c r="E181" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" t="s">
+        <v>361</v>
+      </c>
+      <c r="D182" t="s">
+        <v>548</v>
+      </c>
+      <c r="E182" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>185</v>
+      </c>
+      <c r="C183" t="s">
+        <v>389</v>
+      </c>
+      <c r="D183" t="s">
+        <v>548</v>
+      </c>
+      <c r="E183" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>186</v>
+      </c>
+      <c r="C184" t="s">
+        <v>429</v>
+      </c>
+      <c r="D184" t="s">
+        <v>548</v>
+      </c>
+      <c r="E184" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>187</v>
+      </c>
+      <c r="C185" t="s">
+        <v>411</v>
+      </c>
+      <c r="D185" t="s">
+        <v>548</v>
+      </c>
+      <c r="E185" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>188</v>
+      </c>
+      <c r="C186" t="s">
+        <v>390</v>
+      </c>
+      <c r="D186" t="s">
+        <v>548</v>
+      </c>
+      <c r="E186" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" t="s">
+        <v>364</v>
+      </c>
+      <c r="D187" t="s">
+        <v>549</v>
+      </c>
+      <c r="E187" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>190</v>
+      </c>
+      <c r="C188" t="s">
+        <v>412</v>
+      </c>
+      <c r="D188" t="s">
+        <v>550</v>
+      </c>
+      <c r="E188" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" t="s">
+        <v>432</v>
+      </c>
+      <c r="D189" t="s">
+        <v>551</v>
+      </c>
+      <c r="E189" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>192</v>
+      </c>
+      <c r="C190" t="s">
+        <v>395</v>
+      </c>
+      <c r="D190" t="s">
+        <v>552</v>
+      </c>
+      <c r="E190" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>193</v>
+      </c>
+      <c r="C191" t="s">
+        <v>415</v>
+      </c>
+      <c r="D191" t="s">
+        <v>552</v>
+      </c>
+      <c r="E191" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>194</v>
+      </c>
+      <c r="C192" t="s">
+        <v>397</v>
+      </c>
+      <c r="D192" t="s">
+        <v>552</v>
+      </c>
+      <c r="E192" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>195</v>
+      </c>
+      <c r="C193" t="s">
+        <v>460</v>
+      </c>
+      <c r="D193" t="s">
+        <v>553</v>
+      </c>
+      <c r="E193" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>196</v>
+      </c>
+      <c r="C194" t="s">
+        <v>371</v>
+      </c>
+      <c r="D194" t="s">
+        <v>553</v>
+      </c>
+      <c r="E194" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>197</v>
+      </c>
+      <c r="C195" t="s">
+        <v>372</v>
+      </c>
+      <c r="D195" t="s">
+        <v>554</v>
+      </c>
+      <c r="E195" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>198</v>
+      </c>
+      <c r="C196" t="s">
+        <v>465</v>
+      </c>
+      <c r="D196" t="s">
+        <v>555</v>
+      </c>
+      <c r="E196" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>199</v>
+      </c>
+      <c r="C197" t="s">
+        <v>466</v>
+      </c>
+      <c r="D197" t="s">
+        <v>555</v>
+      </c>
+      <c r="E197" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>200</v>
+      </c>
+      <c r="C198" t="s">
+        <v>375</v>
+      </c>
+      <c r="D198" t="s">
+        <v>556</v>
+      </c>
+      <c r="E198" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" t="s">
+        <v>437</v>
+      </c>
+      <c r="D199" t="s">
+        <v>556</v>
+      </c>
+      <c r="E199" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" t="s">
+        <v>403</v>
+      </c>
+      <c r="D200" t="s">
+        <v>556</v>
+      </c>
+      <c r="E200" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" t="s">
+        <v>467</v>
+      </c>
+      <c r="D201" t="s">
+        <v>556</v>
+      </c>
+      <c r="E201" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" t="s">
+        <v>455</v>
+      </c>
+      <c r="D202" t="s">
+        <v>556</v>
+      </c>
+      <c r="E202" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>205</v>
+      </c>
+      <c r="C203" t="s">
+        <v>468</v>
+      </c>
+      <c r="D203" t="s">
+        <v>557</v>
+      </c>
+      <c r="E203" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>206</v>
+      </c>
+      <c r="C204" t="s">
+        <v>441</v>
+      </c>
+      <c r="D204" t="s">
+        <v>557</v>
+      </c>
+      <c r="E204" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>207</v>
+      </c>
+      <c r="C205" t="s">
+        <v>424</v>
+      </c>
+      <c r="D205" t="s">
+        <v>557</v>
+      </c>
+      <c r="E205" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" t="s">
+        <v>383</v>
+      </c>
+      <c r="D206" t="s">
+        <v>558</v>
+      </c>
+      <c r="E206" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>209</v>
+      </c>
+      <c r="C207" t="s">
+        <v>384</v>
+      </c>
+      <c r="D207" t="s">
+        <v>558</v>
+      </c>
+      <c r="E207" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" t="s">
+        <v>385</v>
+      </c>
+      <c r="D208" t="s">
+        <v>558</v>
+      </c>
+      <c r="E208" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>211</v>
+      </c>
+      <c r="C209" t="s">
+        <v>408</v>
+      </c>
+      <c r="D209" t="s">
+        <v>558</v>
+      </c>
+      <c r="E209" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>212</v>
+      </c>
+      <c r="C210" t="s">
+        <v>457</v>
+      </c>
+      <c r="D210" t="s">
+        <v>558</v>
+      </c>
+      <c r="E210" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>213</v>
+      </c>
+      <c r="C211" t="s">
+        <v>428</v>
+      </c>
+      <c r="D211" t="s">
+        <v>558</v>
+      </c>
+      <c r="E211" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>214</v>
+      </c>
+      <c r="C212" t="s">
+        <v>429</v>
+      </c>
+      <c r="D212" t="s">
+        <v>559</v>
+      </c>
+      <c r="E212" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" t="s">
+        <v>390</v>
+      </c>
+      <c r="D213" t="s">
+        <v>559</v>
+      </c>
+      <c r="E213" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>216</v>
+      </c>
+      <c r="C214" t="s">
+        <v>362</v>
+      </c>
+      <c r="D214" t="s">
+        <v>559</v>
+      </c>
+      <c r="E214" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>217</v>
+      </c>
+      <c r="C215" t="s">
+        <v>445</v>
+      </c>
+      <c r="D215" t="s">
+        <v>559</v>
+      </c>
+      <c r="E215" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>218</v>
+      </c>
+      <c r="C216" t="s">
+        <v>362</v>
+      </c>
+      <c r="D216" t="s">
+        <v>559</v>
+      </c>
+      <c r="E216" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>219</v>
+      </c>
+      <c r="C217" t="s">
+        <v>392</v>
+      </c>
+      <c r="D217" t="s">
+        <v>560</v>
+      </c>
+      <c r="E217" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>220</v>
+      </c>
+      <c r="C218" t="s">
+        <v>412</v>
+      </c>
+      <c r="D218" t="s">
+        <v>561</v>
+      </c>
+      <c r="E218" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>221</v>
+      </c>
+      <c r="C219" t="s">
+        <v>459</v>
+      </c>
+      <c r="D219" t="s">
+        <v>562</v>
+      </c>
+      <c r="E219" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>222</v>
+      </c>
+      <c r="C220" t="s">
+        <v>414</v>
+      </c>
+      <c r="D220" t="s">
+        <v>563</v>
+      </c>
+      <c r="E220" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>223</v>
+      </c>
+      <c r="C221" t="s">
+        <v>396</v>
+      </c>
+      <c r="D221" t="s">
+        <v>563</v>
+      </c>
+      <c r="E221" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>224</v>
+      </c>
+      <c r="C222" t="s">
+        <v>469</v>
+      </c>
+      <c r="D222" t="s">
+        <v>563</v>
+      </c>
+      <c r="E222" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" t="s">
+        <v>398</v>
+      </c>
+      <c r="D223" t="s">
+        <v>563</v>
+      </c>
+      <c r="E223" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>226</v>
+      </c>
+      <c r="C224" t="s">
+        <v>399</v>
+      </c>
+      <c r="D224" t="s">
+        <v>564</v>
+      </c>
+      <c r="E224" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C225" t="s">
+        <v>417</v>
+      </c>
+      <c r="D225" t="s">
+        <v>565</v>
+      </c>
+      <c r="E225" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>228</v>
+      </c>
+      <c r="C226" t="s">
+        <v>373</v>
+      </c>
+      <c r="D226" t="s">
+        <v>566</v>
+      </c>
+      <c r="E226" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>229</v>
+      </c>
+      <c r="C227" t="s">
+        <v>419</v>
+      </c>
+      <c r="D227" t="s">
+        <v>566</v>
+      </c>
+      <c r="E227" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>230</v>
+      </c>
+      <c r="C228" t="s">
+        <v>375</v>
+      </c>
+      <c r="D228" t="s">
+        <v>566</v>
+      </c>
+      <c r="E228" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>231</v>
+      </c>
+      <c r="C229" t="s">
+        <v>376</v>
+      </c>
+      <c r="D229" t="s">
+        <v>567</v>
+      </c>
+      <c r="E229" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>232</v>
+      </c>
+      <c r="C230" t="s">
+        <v>438</v>
+      </c>
+      <c r="D230" t="s">
+        <v>567</v>
+      </c>
+      <c r="E230" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>233</v>
+      </c>
+      <c r="C231" t="s">
+        <v>421</v>
+      </c>
+      <c r="D231" t="s">
+        <v>567</v>
+      </c>
+      <c r="E231" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>234</v>
+      </c>
+      <c r="C232" t="s">
+        <v>455</v>
+      </c>
+      <c r="D232" t="s">
+        <v>567</v>
+      </c>
+      <c r="E232" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>235</v>
+      </c>
+      <c r="C233" t="s">
+        <v>468</v>
+      </c>
+      <c r="D233" t="s">
+        <v>568</v>
+      </c>
+      <c r="E233" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>236</v>
+      </c>
+      <c r="C234" t="s">
+        <v>441</v>
+      </c>
+      <c r="D234" t="s">
+        <v>569</v>
+      </c>
+      <c r="E234" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>237</v>
+      </c>
+      <c r="C235" t="s">
+        <v>470</v>
+      </c>
+      <c r="D235" t="s">
+        <v>569</v>
+      </c>
+      <c r="E235" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
         <v>238</v>
       </c>
-      <c r="D151" t="s">
+      <c r="C236" t="s">
+        <v>425</v>
+      </c>
+      <c r="D236" t="s">
+        <v>569</v>
+      </c>
+      <c r="E236" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>239</v>
+      </c>
+      <c r="C237" t="s">
+        <v>471</v>
+      </c>
+      <c r="D237" t="s">
+        <v>569</v>
+      </c>
+      <c r="E237" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>240</v>
+      </c>
+      <c r="C238" t="s">
+        <v>463</v>
+      </c>
+      <c r="D238" t="s">
+        <v>569</v>
+      </c>
+      <c r="E238" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>241</v>
+      </c>
+      <c r="C239" t="s">
+        <v>472</v>
+      </c>
+      <c r="D239" t="s">
+        <v>569</v>
+      </c>
+      <c r="E239" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" t="s">
+        <v>409</v>
+      </c>
+      <c r="D240" t="s">
+        <v>569</v>
+      </c>
+      <c r="E240" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>212</v>
+      </c>
+      <c r="C241" t="s">
+        <v>428</v>
+      </c>
+      <c r="D241" t="s">
+        <v>569</v>
+      </c>
+      <c r="E241" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>243</v>
+      </c>
+      <c r="C242" t="s">
+        <v>362</v>
+      </c>
+      <c r="D242" t="s">
+        <v>570</v>
+      </c>
+      <c r="E242" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>244</v>
+      </c>
+      <c r="C243" t="s">
+        <v>429</v>
+      </c>
+      <c r="D243" t="s">
+        <v>570</v>
+      </c>
+      <c r="E243" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>245</v>
+      </c>
+      <c r="C244" t="s">
+        <v>362</v>
+      </c>
+      <c r="D244" t="s">
+        <v>571</v>
+      </c>
+      <c r="E244" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" t="s">
+        <v>246</v>
+      </c>
+      <c r="C245" t="s">
+        <v>363</v>
+      </c>
+      <c r="D245" t="s">
+        <v>571</v>
+      </c>
+      <c r="E245" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>247</v>
+      </c>
+      <c r="C246" t="s">
+        <v>389</v>
+      </c>
+      <c r="D246" t="s">
+        <v>571</v>
+      </c>
+      <c r="E246" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>248</v>
+      </c>
+      <c r="C247" t="s">
+        <v>446</v>
+      </c>
+      <c r="D247" t="s">
+        <v>572</v>
+      </c>
+      <c r="E247" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" t="s">
+        <v>6</v>
+      </c>
+      <c r="B248" t="s">
+        <v>249</v>
+      </c>
+      <c r="C248" t="s">
+        <v>473</v>
+      </c>
+      <c r="D248" t="s">
+        <v>573</v>
+      </c>
+      <c r="E248" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" t="s">
+        <v>6</v>
+      </c>
+      <c r="B249" t="s">
+        <v>250</v>
+      </c>
+      <c r="C249" t="s">
+        <v>459</v>
+      </c>
+      <c r="D249" t="s">
+        <v>574</v>
+      </c>
+      <c r="E249" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" t="s">
+        <v>6</v>
+      </c>
+      <c r="B250" t="s">
+        <v>251</v>
+      </c>
+      <c r="C250" t="s">
+        <v>414</v>
+      </c>
+      <c r="D250" t="s">
+        <v>575</v>
+      </c>
+      <c r="E250" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" t="s">
+        <v>6</v>
+      </c>
+      <c r="B251" t="s">
+        <v>252</v>
+      </c>
+      <c r="C251" t="s">
+        <v>448</v>
+      </c>
+      <c r="D251" t="s">
+        <v>575</v>
+      </c>
+      <c r="E251" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" t="s">
+        <v>253</v>
+      </c>
+      <c r="C252" t="s">
+        <v>449</v>
+      </c>
+      <c r="D252" t="s">
+        <v>575</v>
+      </c>
+      <c r="E252" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>254</v>
+      </c>
+      <c r="C253" t="s">
+        <v>416</v>
+      </c>
+      <c r="D253" t="s">
+        <v>575</v>
+      </c>
+      <c r="E253" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>6</v>
+      </c>
+      <c r="B254" t="s">
+        <v>255</v>
+      </c>
+      <c r="C254" t="s">
+        <v>399</v>
+      </c>
+      <c r="D254" t="s">
+        <v>576</v>
+      </c>
+      <c r="E254" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>6</v>
+      </c>
+      <c r="B255" t="s">
+        <v>256</v>
+      </c>
+      <c r="C255" t="s">
+        <v>372</v>
+      </c>
+      <c r="D255" t="s">
+        <v>577</v>
+      </c>
+      <c r="E255" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>6</v>
+      </c>
+      <c r="B256" t="s">
+        <v>257</v>
+      </c>
+      <c r="C256" t="s">
+        <v>474</v>
+      </c>
+      <c r="D256" t="s">
+        <v>578</v>
+      </c>
+      <c r="E256" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>6</v>
+      </c>
+      <c r="B257" t="s">
+        <v>258</v>
+      </c>
+      <c r="C257" t="s">
+        <v>466</v>
+      </c>
+      <c r="D257" t="s">
+        <v>578</v>
+      </c>
+      <c r="E257" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>259</v>
+      </c>
+      <c r="C258" t="s">
+        <v>453</v>
+      </c>
+      <c r="D258" t="s">
+        <v>578</v>
+      </c>
+      <c r="E258" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>260</v>
+      </c>
+      <c r="C259" t="s">
+        <v>437</v>
+      </c>
+      <c r="D259" t="s">
+        <v>578</v>
+      </c>
+      <c r="E259" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260" t="s">
+        <v>475</v>
+      </c>
+      <c r="D260" t="s">
+        <v>578</v>
+      </c>
+      <c r="E260" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>6</v>
+      </c>
+      <c r="B261" t="s">
+        <v>262</v>
+      </c>
+      <c r="C261" t="s">
+        <v>467</v>
+      </c>
+      <c r="D261" t="s">
+        <v>579</v>
+      </c>
+      <c r="E261" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262" t="s">
+        <v>263</v>
+      </c>
+      <c r="C262" t="s">
+        <v>476</v>
+      </c>
+      <c r="D262" t="s">
+        <v>579</v>
+      </c>
+      <c r="E262" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>6</v>
+      </c>
+      <c r="B263" t="s">
+        <v>264</v>
+      </c>
+      <c r="C263" t="s">
+        <v>477</v>
+      </c>
+      <c r="D263" t="s">
+        <v>580</v>
+      </c>
+      <c r="E263" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>6</v>
+      </c>
+      <c r="B264" t="s">
+        <v>265</v>
+      </c>
+      <c r="C264" t="s">
+        <v>478</v>
+      </c>
+      <c r="D264" t="s">
+        <v>580</v>
+      </c>
+      <c r="E264" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>6</v>
+      </c>
+      <c r="B265" t="s">
+        <v>266</v>
+      </c>
+      <c r="C265" t="s">
+        <v>470</v>
+      </c>
+      <c r="D265" t="s">
+        <v>580</v>
+      </c>
+      <c r="E265" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>267</v>
+      </c>
+      <c r="C266" t="s">
+        <v>442</v>
+      </c>
+      <c r="D266" t="s">
+        <v>580</v>
+      </c>
+      <c r="E266" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" t="s">
+        <v>268</v>
+      </c>
+      <c r="C267" t="s">
+        <v>426</v>
+      </c>
+      <c r="D267" t="s">
+        <v>580</v>
+      </c>
+      <c r="E267" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s">
+        <v>269</v>
+      </c>
+      <c r="C268" t="s">
+        <v>456</v>
+      </c>
+      <c r="D268" t="s">
+        <v>581</v>
+      </c>
+      <c r="E268" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>6</v>
+      </c>
+      <c r="B269" t="s">
+        <v>270</v>
+      </c>
+      <c r="C269" t="s">
+        <v>472</v>
+      </c>
+      <c r="D269" t="s">
+        <v>581</v>
+      </c>
+      <c r="E269" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>6</v>
+      </c>
+      <c r="B270" t="s">
+        <v>271</v>
+      </c>
+      <c r="C270" t="s">
+        <v>387</v>
+      </c>
+      <c r="D270" t="s">
+        <v>581</v>
+      </c>
+      <c r="E270" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>6</v>
+      </c>
+      <c r="B271" t="s">
+        <v>272</v>
+      </c>
+      <c r="C271" t="s">
+        <v>479</v>
+      </c>
+      <c r="D271" t="s">
+        <v>581</v>
+      </c>
+      <c r="E271" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>273</v>
+      </c>
+      <c r="C272" t="s">
+        <v>389</v>
+      </c>
+      <c r="D272" t="s">
+        <v>582</v>
+      </c>
+      <c r="E272" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>274</v>
+      </c>
+      <c r="C273" t="s">
+        <v>429</v>
+      </c>
+      <c r="D273" t="s">
+        <v>582</v>
+      </c>
+      <c r="E273" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>275</v>
+      </c>
+      <c r="C274" t="s">
+        <v>362</v>
+      </c>
+      <c r="D274" t="s">
+        <v>582</v>
+      </c>
+      <c r="E274" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" t="s">
+        <v>458</v>
+      </c>
+      <c r="D275" t="s">
+        <v>582</v>
+      </c>
+      <c r="E275" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>277</v>
+      </c>
+      <c r="C276" t="s">
+        <v>362</v>
+      </c>
+      <c r="D276" t="s">
+        <v>582</v>
+      </c>
+      <c r="E276" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" t="s">
+        <v>278</v>
+      </c>
+      <c r="C277" t="s">
+        <v>446</v>
+      </c>
+      <c r="D277" t="s">
+        <v>583</v>
+      </c>
+      <c r="E277" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>6</v>
+      </c>
+      <c r="B278" t="s">
+        <v>279</v>
+      </c>
+      <c r="C278" t="s">
+        <v>365</v>
+      </c>
+      <c r="D278" t="s">
+        <v>584</v>
+      </c>
+      <c r="E278" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B279" t="s">
+        <v>280</v>
+      </c>
+      <c r="C279" t="s">
+        <v>413</v>
+      </c>
+      <c r="D279" t="s">
+        <v>585</v>
+      </c>
+      <c r="E279" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>281</v>
+      </c>
+      <c r="C280" t="s">
+        <v>433</v>
+      </c>
+      <c r="D280" t="s">
+        <v>586</v>
+      </c>
+      <c r="E280" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" t="s">
+        <v>282</v>
+      </c>
+      <c r="C281" t="s">
+        <v>396</v>
+      </c>
+      <c r="D281" t="s">
+        <v>586</v>
+      </c>
+      <c r="E281" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>6</v>
+      </c>
+      <c r="B282" t="s">
+        <v>283</v>
+      </c>
+      <c r="C282" t="s">
+        <v>469</v>
+      </c>
+      <c r="D282" t="s">
+        <v>586</v>
+      </c>
+      <c r="E282" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>6</v>
+      </c>
+      <c r="B283" t="s">
+        <v>284</v>
+      </c>
+      <c r="C283" t="s">
+        <v>370</v>
+      </c>
+      <c r="D283" t="s">
+        <v>586</v>
+      </c>
+      <c r="E283" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>6</v>
+      </c>
+      <c r="B284" t="s">
+        <v>285</v>
+      </c>
+      <c r="C284" t="s">
+        <v>480</v>
+      </c>
+      <c r="D284" t="s">
+        <v>587</v>
+      </c>
+      <c r="E284" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>6</v>
+      </c>
+      <c r="B285" t="s">
+        <v>286</v>
+      </c>
+      <c r="C285" t="s">
+        <v>417</v>
+      </c>
+      <c r="D285" t="s">
+        <v>587</v>
+      </c>
+      <c r="E285" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>6</v>
+      </c>
+      <c r="B286" t="s">
+        <v>287</v>
+      </c>
+      <c r="C286" t="s">
+        <v>474</v>
+      </c>
+      <c r="D286" t="s">
+        <v>588</v>
+      </c>
+      <c r="E286" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" t="s">
+        <v>288</v>
+      </c>
+      <c r="C287" t="s">
+        <v>481</v>
+      </c>
+      <c r="D287" t="s">
+        <v>588</v>
+      </c>
+      <c r="E287" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" t="s">
+        <v>289</v>
+      </c>
+      <c r="C288" t="s">
+        <v>482</v>
+      </c>
+      <c r="D288" t="s">
+        <v>588</v>
+      </c>
+      <c r="E288" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" t="s">
+        <v>290</v>
+      </c>
+      <c r="C289" t="s">
+        <v>376</v>
+      </c>
+      <c r="D289" t="s">
+        <v>588</v>
+      </c>
+      <c r="E289" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>6</v>
+      </c>
+      <c r="B290" t="s">
+        <v>291</v>
+      </c>
+      <c r="C290" t="s">
+        <v>420</v>
+      </c>
+      <c r="D290" t="s">
+        <v>588</v>
+      </c>
+      <c r="E290" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" t="s">
+        <v>292</v>
+      </c>
+      <c r="C291" t="s">
+        <v>421</v>
+      </c>
+      <c r="D291" t="s">
+        <v>589</v>
+      </c>
+      <c r="E291" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>6</v>
+      </c>
+      <c r="B292" t="s">
+        <v>293</v>
+      </c>
+      <c r="C292" t="s">
+        <v>404</v>
+      </c>
+      <c r="D292" t="s">
+        <v>589</v>
+      </c>
+      <c r="E292" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>6</v>
+      </c>
+      <c r="B293" t="s">
+        <v>294</v>
+      </c>
+      <c r="C293" t="s">
+        <v>422</v>
+      </c>
+      <c r="D293" t="s">
+        <v>590</v>
+      </c>
+      <c r="E293" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" t="s">
+        <v>295</v>
+      </c>
+      <c r="C294" t="s">
+        <v>441</v>
+      </c>
+      <c r="D294" t="s">
+        <v>590</v>
+      </c>
+      <c r="E294" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
+        <v>296</v>
+      </c>
+      <c r="C295" t="s">
+        <v>470</v>
+      </c>
+      <c r="D295" t="s">
+        <v>591</v>
+      </c>
+      <c r="E295" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>6</v>
+      </c>
+      <c r="B296" t="s">
+        <v>297</v>
+      </c>
+      <c r="C296" t="s">
+        <v>425</v>
+      </c>
+      <c r="D296" t="s">
+        <v>591</v>
+      </c>
+      <c r="E296" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>6</v>
+      </c>
+      <c r="B297" t="s">
+        <v>298</v>
+      </c>
+      <c r="C297" t="s">
+        <v>471</v>
+      </c>
+      <c r="D297" t="s">
+        <v>591</v>
+      </c>
+      <c r="E297" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>6</v>
+      </c>
+      <c r="B298" t="s">
+        <v>299</v>
+      </c>
+      <c r="C298" t="s">
+        <v>456</v>
+      </c>
+      <c r="D298" t="s">
+        <v>591</v>
+      </c>
+      <c r="E298" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>6</v>
+      </c>
+      <c r="B299" t="s">
+        <v>300</v>
+      </c>
+      <c r="C299" t="s">
+        <v>483</v>
+      </c>
+      <c r="D299" t="s">
+        <v>591</v>
+      </c>
+      <c r="E299" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" t="s">
         <v>301</v>
       </c>
-      <c r="E151" t="s">
+      <c r="C300" t="s">
+        <v>464</v>
+      </c>
+      <c r="D300" t="s">
+        <v>591</v>
+      </c>
+      <c r="E300" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>6</v>
+      </c>
+      <c r="B301" t="s">
         <v>302</v>
+      </c>
+      <c r="C301" t="s">
+        <v>479</v>
+      </c>
+      <c r="D301" t="s">
+        <v>591</v>
+      </c>
+      <c r="E301" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>303</v>
+      </c>
+      <c r="C302" t="s">
+        <v>362</v>
+      </c>
+      <c r="D302" t="s">
+        <v>592</v>
+      </c>
+      <c r="E302" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" t="s">
+        <v>304</v>
+      </c>
+      <c r="C303" t="s">
+        <v>390</v>
+      </c>
+      <c r="D303" t="s">
+        <v>592</v>
+      </c>
+      <c r="E303" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
+        <v>305</v>
+      </c>
+      <c r="C304" t="s">
+        <v>389</v>
+      </c>
+      <c r="D304" t="s">
+        <v>592</v>
+      </c>
+      <c r="E304" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" t="s">
+        <v>306</v>
+      </c>
+      <c r="C305" t="s">
+        <v>445</v>
+      </c>
+      <c r="D305" t="s">
+        <v>593</v>
+      </c>
+      <c r="E305" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" t="s">
+        <v>307</v>
+      </c>
+      <c r="C306" t="s">
+        <v>429</v>
+      </c>
+      <c r="D306" t="s">
+        <v>593</v>
+      </c>
+      <c r="E306" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>6</v>
+      </c>
+      <c r="B307" t="s">
+        <v>308</v>
+      </c>
+      <c r="C307" t="s">
+        <v>430</v>
+      </c>
+      <c r="D307" t="s">
+        <v>594</v>
+      </c>
+      <c r="E307" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" t="s">
+        <v>309</v>
+      </c>
+      <c r="C308" t="s">
+        <v>365</v>
+      </c>
+      <c r="D308" t="s">
+        <v>595</v>
+      </c>
+      <c r="E308" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" t="s">
+        <v>310</v>
+      </c>
+      <c r="C309" t="s">
+        <v>413</v>
+      </c>
+      <c r="D309" t="s">
+        <v>596</v>
+      </c>
+      <c r="E309" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>6</v>
+      </c>
+      <c r="B310" t="s">
+        <v>311</v>
+      </c>
+      <c r="C310" t="s">
+        <v>367</v>
+      </c>
+      <c r="D310" t="s">
+        <v>597</v>
+      </c>
+      <c r="E310" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>6</v>
+      </c>
+      <c r="B311" t="s">
+        <v>20</v>
+      </c>
+      <c r="C311" t="s">
+        <v>415</v>
+      </c>
+      <c r="D311" t="s">
+        <v>597</v>
+      </c>
+      <c r="E311" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>6</v>
+      </c>
+      <c r="B312" t="s">
+        <v>312</v>
+      </c>
+      <c r="C312" t="s">
+        <v>469</v>
+      </c>
+      <c r="D312" t="s">
+        <v>597</v>
+      </c>
+      <c r="E312" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>6</v>
+      </c>
+      <c r="B313" t="s">
+        <v>313</v>
+      </c>
+      <c r="C313" t="s">
+        <v>484</v>
+      </c>
+      <c r="D313" t="s">
+        <v>597</v>
+      </c>
+      <c r="E313" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>6</v>
+      </c>
+      <c r="B314" t="s">
+        <v>314</v>
+      </c>
+      <c r="C314" t="s">
+        <v>371</v>
+      </c>
+      <c r="D314" t="s">
+        <v>598</v>
+      </c>
+      <c r="E314" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315" t="s">
+        <v>315</v>
+      </c>
+      <c r="C315" t="s">
+        <v>372</v>
+      </c>
+      <c r="D315" t="s">
+        <v>598</v>
+      </c>
+      <c r="E315" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" t="s">
+        <v>316</v>
+      </c>
+      <c r="C316" t="s">
+        <v>465</v>
+      </c>
+      <c r="D316" t="s">
+        <v>599</v>
+      </c>
+      <c r="E316" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B317" t="s">
+        <v>317</v>
+      </c>
+      <c r="C317" t="s">
+        <v>374</v>
+      </c>
+      <c r="D317" t="s">
+        <v>600</v>
+      </c>
+      <c r="E317" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>6</v>
+      </c>
+      <c r="B318" t="s">
+        <v>318</v>
+      </c>
+      <c r="C318" t="s">
+        <v>453</v>
+      </c>
+      <c r="D318" t="s">
+        <v>600</v>
+      </c>
+      <c r="E318" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>6</v>
+      </c>
+      <c r="B319" t="s">
+        <v>319</v>
+      </c>
+      <c r="C319" t="s">
+        <v>454</v>
+      </c>
+      <c r="D319" t="s">
+        <v>600</v>
+      </c>
+      <c r="E319" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" t="s">
+        <v>320</v>
+      </c>
+      <c r="C320" t="s">
+        <v>403</v>
+      </c>
+      <c r="D320" t="s">
+        <v>600</v>
+      </c>
+      <c r="E320" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>6</v>
+      </c>
+      <c r="B321" t="s">
+        <v>321</v>
+      </c>
+      <c r="C321" t="s">
+        <v>378</v>
+      </c>
+      <c r="D321" t="s">
+        <v>600</v>
+      </c>
+      <c r="E321" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
+        <v>322</v>
+      </c>
+      <c r="C322" t="s">
+        <v>404</v>
+      </c>
+      <c r="D322" t="s">
+        <v>600</v>
+      </c>
+      <c r="E322" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" t="s">
+        <v>323</v>
+      </c>
+      <c r="C323" t="s">
+        <v>440</v>
+      </c>
+      <c r="D323" t="s">
+        <v>601</v>
+      </c>
+      <c r="E323" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>6</v>
+      </c>
+      <c r="B324" t="s">
+        <v>324</v>
+      </c>
+      <c r="C324" t="s">
+        <v>478</v>
+      </c>
+      <c r="D324" t="s">
+        <v>601</v>
+      </c>
+      <c r="E324" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>6</v>
+      </c>
+      <c r="B325" t="s">
+        <v>325</v>
+      </c>
+      <c r="C325" t="s">
+        <v>470</v>
+      </c>
+      <c r="D325" t="s">
+        <v>601</v>
+      </c>
+      <c r="E325" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>6</v>
+      </c>
+      <c r="B326" t="s">
+        <v>326</v>
+      </c>
+      <c r="C326" t="s">
+        <v>485</v>
+      </c>
+      <c r="D326" t="s">
+        <v>601</v>
+      </c>
+      <c r="E326" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>6</v>
+      </c>
+      <c r="B327" t="s">
+        <v>327</v>
+      </c>
+      <c r="C327" t="s">
+        <v>384</v>
+      </c>
+      <c r="D327" t="s">
+        <v>601</v>
+      </c>
+      <c r="E327" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>6</v>
+      </c>
+      <c r="B328" t="s">
+        <v>328</v>
+      </c>
+      <c r="C328" t="s">
+        <v>463</v>
+      </c>
+      <c r="D328" t="s">
+        <v>601</v>
+      </c>
+      <c r="E328" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" t="s">
+        <v>329</v>
+      </c>
+      <c r="C329" t="s">
+        <v>386</v>
+      </c>
+      <c r="D329" t="s">
+        <v>601</v>
+      </c>
+      <c r="E329" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" t="s">
+        <v>330</v>
+      </c>
+      <c r="C330" t="s">
+        <v>457</v>
+      </c>
+      <c r="D330" t="s">
+        <v>601</v>
+      </c>
+      <c r="E330" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>6</v>
+      </c>
+      <c r="B331" t="s">
+        <v>331</v>
+      </c>
+      <c r="C331" t="s">
+        <v>479</v>
+      </c>
+      <c r="D331" t="s">
+        <v>601</v>
+      </c>
+      <c r="E331" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" t="s">
+        <v>332</v>
+      </c>
+      <c r="C332" t="s">
+        <v>361</v>
+      </c>
+      <c r="D332" t="s">
+        <v>602</v>
+      </c>
+      <c r="E332" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" t="s">
+        <v>333</v>
+      </c>
+      <c r="C333" t="s">
+        <v>429</v>
+      </c>
+      <c r="D333" t="s">
+        <v>602</v>
+      </c>
+      <c r="E333" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" t="s">
+        <v>334</v>
+      </c>
+      <c r="C334" t="s">
+        <v>361</v>
+      </c>
+      <c r="D334" t="s">
+        <v>602</v>
+      </c>
+      <c r="E334" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" t="s">
+        <v>335</v>
+      </c>
+      <c r="C335" t="s">
+        <v>391</v>
+      </c>
+      <c r="D335" t="s">
+        <v>602</v>
+      </c>
+      <c r="E335" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" t="s">
+        <v>336</v>
+      </c>
+      <c r="C336" t="s">
+        <v>429</v>
+      </c>
+      <c r="D336" t="s">
+        <v>602</v>
+      </c>
+      <c r="E336" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" t="s">
+        <v>337</v>
+      </c>
+      <c r="C337" t="s">
+        <v>446</v>
+      </c>
+      <c r="D337" t="s">
+        <v>603</v>
+      </c>
+      <c r="E337" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>6</v>
+      </c>
+      <c r="B338" t="s">
+        <v>338</v>
+      </c>
+      <c r="C338" t="s">
+        <v>412</v>
+      </c>
+      <c r="D338" t="s">
+        <v>604</v>
+      </c>
+      <c r="E338" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339" t="s">
+        <v>339</v>
+      </c>
+      <c r="C339" t="s">
+        <v>459</v>
+      </c>
+      <c r="D339" t="s">
+        <v>605</v>
+      </c>
+      <c r="E339" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" t="s">
+        <v>340</v>
+      </c>
+      <c r="C340" t="s">
+        <v>395</v>
+      </c>
+      <c r="D340" t="s">
+        <v>606</v>
+      </c>
+      <c r="E340" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" t="s">
+        <v>209</v>
+      </c>
+      <c r="C341" t="s">
+        <v>434</v>
+      </c>
+      <c r="D341" t="s">
+        <v>606</v>
+      </c>
+      <c r="E341" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>6</v>
+      </c>
+      <c r="B342" t="s">
+        <v>341</v>
+      </c>
+      <c r="C342" t="s">
+        <v>449</v>
+      </c>
+      <c r="D342" t="s">
+        <v>606</v>
+      </c>
+      <c r="E342" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>342</v>
+      </c>
+      <c r="C343" t="s">
+        <v>484</v>
+      </c>
+      <c r="D343" t="s">
+        <v>607</v>
+      </c>
+      <c r="E343" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
+        <v>343</v>
+      </c>
+      <c r="C344" t="s">
+        <v>450</v>
+      </c>
+      <c r="D344" t="s">
+        <v>607</v>
+      </c>
+      <c r="E344" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>6</v>
+      </c>
+      <c r="B345" t="s">
+        <v>344</v>
+      </c>
+      <c r="C345" t="s">
+        <v>372</v>
+      </c>
+      <c r="D345" t="s">
+        <v>608</v>
+      </c>
+      <c r="E345" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B346" t="s">
+        <v>345</v>
+      </c>
+      <c r="C346" t="s">
+        <v>418</v>
+      </c>
+      <c r="D346" t="s">
+        <v>609</v>
+      </c>
+      <c r="E346" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>6</v>
+      </c>
+      <c r="B347" t="s">
+        <v>346</v>
+      </c>
+      <c r="C347" t="s">
+        <v>481</v>
+      </c>
+      <c r="D347" t="s">
+        <v>609</v>
+      </c>
+      <c r="E347" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>6</v>
+      </c>
+      <c r="B348" t="s">
+        <v>347</v>
+      </c>
+      <c r="C348" t="s">
+        <v>486</v>
+      </c>
+      <c r="D348" t="s">
+        <v>609</v>
+      </c>
+      <c r="E348" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>6</v>
+      </c>
+      <c r="B349" t="s">
+        <v>348</v>
+      </c>
+      <c r="C349" t="s">
+        <v>454</v>
+      </c>
+      <c r="D349" t="s">
+        <v>609</v>
+      </c>
+      <c r="E349" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350" t="s">
+        <v>349</v>
+      </c>
+      <c r="C350" t="s">
+        <v>377</v>
+      </c>
+      <c r="D350" t="s">
+        <v>609</v>
+      </c>
+      <c r="E350" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351" t="s">
+        <v>350</v>
+      </c>
+      <c r="C351" t="s">
+        <v>421</v>
+      </c>
+      <c r="D351" t="s">
+        <v>609</v>
+      </c>
+      <c r="E351" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>6</v>
+      </c>
+      <c r="B352" t="s">
+        <v>351</v>
+      </c>
+      <c r="C352" t="s">
+        <v>476</v>
+      </c>
+      <c r="D352" t="s">
+        <v>609</v>
+      </c>
+      <c r="E352" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>6</v>
+      </c>
+      <c r="B353" t="s">
+        <v>352</v>
+      </c>
+      <c r="C353" t="s">
+        <v>477</v>
+      </c>
+      <c r="D353" t="s">
+        <v>610</v>
+      </c>
+      <c r="E353" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>6</v>
+      </c>
+      <c r="B354" t="s">
+        <v>353</v>
+      </c>
+      <c r="C354" t="s">
+        <v>423</v>
+      </c>
+      <c r="D354" t="s">
+        <v>611</v>
+      </c>
+      <c r="E354" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>6</v>
+      </c>
+      <c r="B355" t="s">
+        <v>354</v>
+      </c>
+      <c r="C355" t="s">
+        <v>382</v>
+      </c>
+      <c r="D355" t="s">
+        <v>611</v>
+      </c>
+      <c r="E355" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" t="s">
+        <v>355</v>
+      </c>
+      <c r="C356" t="s">
+        <v>405</v>
+      </c>
+      <c r="D356" t="s">
+        <v>611</v>
+      </c>
+      <c r="E356" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" t="s">
+        <v>356</v>
+      </c>
+      <c r="C357" t="s">
+        <v>426</v>
+      </c>
+      <c r="D357" t="s">
+        <v>611</v>
+      </c>
+      <c r="E357" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" t="s">
+        <v>357</v>
+      </c>
+      <c r="C358" t="s">
+        <v>487</v>
+      </c>
+      <c r="D358" t="s">
+        <v>611</v>
+      </c>
+      <c r="E358" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>6</v>
+      </c>
+      <c r="B359" t="s">
+        <v>358</v>
+      </c>
+      <c r="C359" t="s">
+        <v>472</v>
+      </c>
+      <c r="D359" t="s">
+        <v>611</v>
+      </c>
+      <c r="E359" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360" t="s">
+        <v>359</v>
+      </c>
+      <c r="C360" t="s">
+        <v>409</v>
+      </c>
+      <c r="D360" t="s">
+        <v>611</v>
+      </c>
+      <c r="E360" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>6</v>
+      </c>
+      <c r="B361" t="s">
+        <v>360</v>
+      </c>
+      <c r="C361" t="s">
+        <v>428</v>
+      </c>
+      <c r="D361" t="s">
+        <v>611</v>
+      </c>
+      <c r="E361" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/result/modelos/catalogo_propuestos.xlsx
+++ b/result/modelos/catalogo_propuestos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="746">
   <si>
     <t>pregunta</t>
   </si>
@@ -1099,6 +1099,195 @@
     <t>NEW_3517</t>
   </si>
   <si>
+    <t>NEW_145</t>
+  </si>
+  <si>
+    <t>NEW_740</t>
+  </si>
+  <si>
+    <t>NEW_861</t>
+  </si>
+  <si>
+    <t>NEW_829</t>
+  </si>
+  <si>
+    <t>NEW_213</t>
+  </si>
+  <si>
+    <t>NEW_317</t>
+  </si>
+  <si>
+    <t>NEW_543</t>
+  </si>
+  <si>
+    <t>NEW_593</t>
+  </si>
+  <si>
+    <t>NEW_574</t>
+  </si>
+  <si>
+    <t>NEW_758</t>
+  </si>
+  <si>
+    <t>NEW_112</t>
+  </si>
+  <si>
+    <t>NEW_329</t>
+  </si>
+  <si>
+    <t>NEW_211</t>
+  </si>
+  <si>
+    <t>NEW_636</t>
+  </si>
+  <si>
+    <t>NEW_853</t>
+  </si>
+  <si>
+    <t>NEW_833</t>
+  </si>
+  <si>
+    <t>NEW_361</t>
+  </si>
+  <si>
+    <t>NEW_729</t>
+  </si>
+  <si>
+    <t>NEW_763</t>
+  </si>
+  <si>
+    <t>NEW_581</t>
+  </si>
+  <si>
+    <t>NEW_504</t>
+  </si>
+  <si>
+    <t>NEW_832</t>
+  </si>
+  <si>
+    <t>NEW_570</t>
+  </si>
+  <si>
+    <t>NEW_876</t>
+  </si>
+  <si>
+    <t>NEW_573</t>
+  </si>
+  <si>
+    <t>NEW_428</t>
+  </si>
+  <si>
+    <t>NEW_384</t>
+  </si>
+  <si>
+    <t>NEW_962</t>
+  </si>
+  <si>
+    <t>NEW_405</t>
+  </si>
+  <si>
+    <t>NEW_318</t>
+  </si>
+  <si>
+    <t>NEW_663</t>
+  </si>
+  <si>
+    <t>NEW_142</t>
+  </si>
+  <si>
+    <t>NEW_422</t>
+  </si>
+  <si>
+    <t>NEW_493</t>
+  </si>
+  <si>
+    <t>NEW_491</t>
+  </si>
+  <si>
+    <t>NEW_425</t>
+  </si>
+  <si>
+    <t>NEW_927</t>
+  </si>
+  <si>
+    <t>NEW_899</t>
+  </si>
+  <si>
+    <t>NEW_173</t>
+  </si>
+  <si>
+    <t>NEW_269</t>
+  </si>
+  <si>
+    <t>NEW_335</t>
+  </si>
+  <si>
+    <t>NEW_101</t>
+  </si>
+  <si>
+    <t>NEW_370</t>
+  </si>
+  <si>
+    <t>NEW_949</t>
+  </si>
+  <si>
+    <t>NEW_437</t>
+  </si>
+  <si>
+    <t>NEW_150</t>
+  </si>
+  <si>
+    <t>NEW_730</t>
+  </si>
+  <si>
+    <t>NEW_714</t>
+  </si>
+  <si>
+    <t>NEW_928</t>
+  </si>
+  <si>
+    <t>NEW_672</t>
+  </si>
+  <si>
+    <t>NEW_519</t>
+  </si>
+  <si>
+    <t>NEW_664</t>
+  </si>
+  <si>
+    <t>NEW_100</t>
+  </si>
+  <si>
+    <t>NEW_619</t>
+  </si>
+  <si>
+    <t>NEW_737</t>
+  </si>
+  <si>
+    <t>NEW_857</t>
+  </si>
+  <si>
+    <t>NEW_149</t>
+  </si>
+  <si>
+    <t>NEW_203</t>
+  </si>
+  <si>
+    <t>NEW_601</t>
+  </si>
+  <si>
+    <t>NEW_721</t>
+  </si>
+  <si>
+    <t>NEW_523</t>
+  </si>
+  <si>
+    <t>NEW_707</t>
+  </si>
+  <si>
+    <t>NEW_247</t>
+  </si>
+  <si>
     <t>Referencia a la c mara</t>
   </si>
   <si>
@@ -1480,6 +1669,159 @@
     <t>Respuesta relacionada con ha sido clave</t>
   </si>
   <si>
+    <t>Respuesta relacionada con son los encargados</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con la cámara de</t>
+  </si>
+  <si>
+    <t>Referencia a la cámara de</t>
+  </si>
+  <si>
+    <t>Opinión sobre función constituyente para</t>
+  </si>
+  <si>
+    <t>Referencia a 1 legislativa crear</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con es una entidad</t>
+  </si>
+  <si>
+    <t>Mención de qú es la</t>
+  </si>
+  <si>
+    <t>Opinión sobre la cámara de</t>
+  </si>
+  <si>
+    <t>Opinión sobre la camara de</t>
+  </si>
+  <si>
+    <t>Comentario sobre representar dignamente al</t>
+  </si>
+  <si>
+    <t>Opinión sobre el senado deliberar</t>
+  </si>
+  <si>
+    <t>Comentario sobre la cámara de</t>
+  </si>
+  <si>
+    <t>Referencia a mandato corto representasion</t>
+  </si>
+  <si>
+    <t>Mención de por qú tiene</t>
+  </si>
+  <si>
+    <t>Mención de no ejercen bien</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con jaime luis péaloza</t>
+  </si>
+  <si>
+    <t>Opinión sobre andr s gaviria</t>
+  </si>
+  <si>
+    <t>Mención de fernando david nío</t>
+  </si>
+  <si>
+    <t>Opinión sobre no los conozco</t>
+  </si>
+  <si>
+    <t>Referencia a jaime rál salamanca</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con no los conozco</t>
+  </si>
+  <si>
+    <t>Referencia a no me acuerdo</t>
+  </si>
+  <si>
+    <t>Comentario sobre no me acuerdo</t>
+  </si>
+  <si>
+    <t>Mención de alejandro carlos chacon</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con lina maria garrido</t>
+  </si>
+  <si>
+    <t>Mención de es un excelente</t>
+  </si>
+  <si>
+    <t>Opinión sobre por su capacidad</t>
+  </si>
+  <si>
+    <t>Opinión sobre no tengo claridad</t>
+  </si>
+  <si>
+    <t>Comentario sobre el pás sigue</t>
+  </si>
+  <si>
+    <t>Comentario sobre por qú no</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con ninguno muestra inter</t>
+  </si>
+  <si>
+    <t>Comentario sobre creo que la</t>
+  </si>
+  <si>
+    <t>Opinión sobre porque me falta</t>
+  </si>
+  <si>
+    <t>Mención de porque no soy</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con por qú no</t>
+  </si>
+  <si>
+    <t>Comentario sobre no puedo afirmar</t>
+  </si>
+  <si>
+    <t>Opinión sobre no entiendo como</t>
+  </si>
+  <si>
+    <t>Opinión sobre no veo resultados</t>
+  </si>
+  <si>
+    <t>Mención de no se quienes</t>
+  </si>
+  <si>
+    <t>Referencia a por q si</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con pues por q</t>
+  </si>
+  <si>
+    <t>Opinión sobre regular por qú</t>
+  </si>
+  <si>
+    <t>Comentario sobre la labor de</t>
+  </si>
+  <si>
+    <t>Referencia a el gobierno actual</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con por que si</t>
+  </si>
+  <si>
+    <t>Opinión sobre actualmente el senado</t>
+  </si>
+  <si>
+    <t>Mención de por lo que</t>
+  </si>
+  <si>
+    <t>Opinión sobre por que sigue</t>
+  </si>
+  <si>
+    <t>Mención de debido al cambio</t>
+  </si>
+  <si>
+    <t>Respuesta relacionada con se ha visto</t>
+  </si>
+  <si>
+    <t>Mención de es abogado de</t>
+  </si>
+  <si>
     <t>2025-09-24 21:27:21</t>
   </si>
   <si>
@@ -1850,6 +2192,63 @@
   </si>
   <si>
     <t>2025-10-01 15:24:07</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:38</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:39</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:40</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:41</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:42</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:43</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:45</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:46</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:50</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:51</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:52</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:53</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:56</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:57</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:03:58</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:04:03</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:04:04</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:04:05</t>
+  </si>
+  <si>
+    <t>2025-10-07 11:04:06</t>
   </si>
   <si>
     <t>pendiente</t>
@@ -2210,7 +2609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E361"/>
+  <dimension ref="A1:E430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2241,13 +2640,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>602</v>
       </c>
       <c r="E2" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2258,13 +2657,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2275,13 +2674,13 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D4" t="s">
-        <v>488</v>
+        <v>602</v>
       </c>
       <c r="E4" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2292,13 +2691,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="D5" t="s">
-        <v>488</v>
+        <v>602</v>
       </c>
       <c r="E5" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2309,13 +2708,13 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>602</v>
       </c>
       <c r="E6" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2326,13 +2725,13 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
+        <v>603</v>
       </c>
       <c r="E7" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2343,13 +2742,13 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>604</v>
       </c>
       <c r="E8" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2360,13 +2759,13 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>605</v>
       </c>
       <c r="E9" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2377,13 +2776,13 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="D10" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="E10" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2394,13 +2793,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>368</v>
+        <v>431</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="E11" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2411,13 +2810,13 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="D12" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="E12" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2428,13 +2827,13 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="E13" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2445,13 +2844,13 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D14" t="s">
-        <v>492</v>
+        <v>606</v>
       </c>
       <c r="E14" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2462,13 +2861,13 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>607</v>
       </c>
       <c r="E15" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2479,13 +2878,13 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="D16" t="s">
-        <v>494</v>
+        <v>608</v>
       </c>
       <c r="E16" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2496,13 +2895,13 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>608</v>
       </c>
       <c r="E17" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2513,13 +2912,13 @@
         <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E18" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2530,13 +2929,13 @@
         <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E19" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2547,13 +2946,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="D20" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E20" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2564,13 +2963,13 @@
         <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="D21" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E21" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2581,13 +2980,13 @@
         <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>379</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="E22" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2598,13 +2997,13 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="E23" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2615,13 +3014,13 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="D24" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="E24" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2632,13 +3031,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="D25" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="E25" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2649,13 +3048,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="D26" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="E26" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2666,13 +3065,13 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="E27" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2683,13 +3082,13 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="D28" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="E28" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2700,13 +3099,13 @@
         <v>34</v>
       </c>
       <c r="C29" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
+        <v>611</v>
       </c>
       <c r="E29" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2717,13 +3116,13 @@
         <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="D30" t="s">
-        <v>497</v>
+        <v>611</v>
       </c>
       <c r="E30" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2734,13 +3133,13 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>388</v>
+        <v>451</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>611</v>
       </c>
       <c r="E31" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2751,13 +3150,13 @@
         <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D32" t="s">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="E32" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2768,13 +3167,13 @@
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D33" t="s">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="E33" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2785,13 +3184,13 @@
         <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D34" t="s">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="E34" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2802,13 +3201,13 @@
         <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="D35" t="s">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="E35" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2819,13 +3218,13 @@
         <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
-        <v>499</v>
+        <v>613</v>
       </c>
       <c r="E36" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2836,13 +3235,13 @@
         <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="D37" t="s">
-        <v>499</v>
+        <v>613</v>
       </c>
       <c r="E37" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2853,13 +3252,13 @@
         <v>43</v>
       </c>
       <c r="C38" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="D38" t="s">
-        <v>500</v>
+        <v>614</v>
       </c>
       <c r="E38" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2870,13 +3269,13 @@
         <v>44</v>
       </c>
       <c r="C39" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="D39" t="s">
-        <v>501</v>
+        <v>615</v>
       </c>
       <c r="E39" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2887,13 +3286,13 @@
         <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="D40" t="s">
-        <v>502</v>
+        <v>616</v>
       </c>
       <c r="E40" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2904,13 +3303,13 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="D41" t="s">
-        <v>502</v>
+        <v>616</v>
       </c>
       <c r="E41" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2921,13 +3320,13 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="D42" t="s">
-        <v>502</v>
+        <v>616</v>
       </c>
       <c r="E42" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2938,13 +3337,13 @@
         <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="D43" t="s">
-        <v>502</v>
+        <v>616</v>
       </c>
       <c r="E43" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2955,13 +3354,13 @@
         <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D44" t="s">
-        <v>503</v>
+        <v>617</v>
       </c>
       <c r="E44" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2972,13 +3371,13 @@
         <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="D45" t="s">
-        <v>503</v>
+        <v>617</v>
       </c>
       <c r="E45" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2989,13 +3388,13 @@
         <v>51</v>
       </c>
       <c r="C46" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="D46" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="E46" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3006,13 +3405,13 @@
         <v>52</v>
       </c>
       <c r="C47" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="D47" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="E47" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3023,13 +3422,13 @@
         <v>53</v>
       </c>
       <c r="C48" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="E48" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3040,13 +3439,13 @@
         <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="D49" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="E49" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3057,13 +3456,13 @@
         <v>55</v>
       </c>
       <c r="C50" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="D50" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="E50" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3074,13 +3473,13 @@
         <v>56</v>
       </c>
       <c r="C51" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="D51" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="E51" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3091,13 +3490,13 @@
         <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="D52" t="s">
-        <v>504</v>
+        <v>618</v>
       </c>
       <c r="E52" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3108,13 +3507,13 @@
         <v>58</v>
       </c>
       <c r="C53" t="s">
-        <v>380</v>
+        <v>443</v>
       </c>
       <c r="D53" t="s">
-        <v>505</v>
+        <v>619</v>
       </c>
       <c r="E53" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3125,13 +3524,13 @@
         <v>59</v>
       </c>
       <c r="C54" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="D54" t="s">
-        <v>505</v>
+        <v>619</v>
       </c>
       <c r="E54" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3142,13 +3541,13 @@
         <v>60</v>
       </c>
       <c r="C55" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="D55" t="s">
-        <v>505</v>
+        <v>619</v>
       </c>
       <c r="E55" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3159,13 +3558,13 @@
         <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="D56" t="s">
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="E56" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3176,13 +3575,13 @@
         <v>62</v>
       </c>
       <c r="C57" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="D57" t="s">
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="E57" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3193,13 +3592,13 @@
         <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="D58" t="s">
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="E58" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3210,13 +3609,13 @@
         <v>64</v>
       </c>
       <c r="C59" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="D59" t="s">
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="E59" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3227,13 +3626,13 @@
         <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="D60" t="s">
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="E60" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3244,13 +3643,13 @@
         <v>66</v>
       </c>
       <c r="C61" t="s">
-        <v>410</v>
+        <v>473</v>
       </c>
       <c r="D61" t="s">
-        <v>506</v>
+        <v>620</v>
       </c>
       <c r="E61" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3261,13 +3660,13 @@
         <v>67</v>
       </c>
       <c r="C62" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D62" t="s">
-        <v>507</v>
+        <v>621</v>
       </c>
       <c r="E62" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3278,13 +3677,13 @@
         <v>68</v>
       </c>
       <c r="C63" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D63" t="s">
-        <v>507</v>
+        <v>621</v>
       </c>
       <c r="E63" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3295,13 +3694,13 @@
         <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D64" t="s">
-        <v>507</v>
+        <v>621</v>
       </c>
       <c r="E64" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3312,13 +3711,13 @@
         <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="D65" t="s">
-        <v>508</v>
+        <v>622</v>
       </c>
       <c r="E65" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3329,13 +3728,13 @@
         <v>71</v>
       </c>
       <c r="C66" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D66" t="s">
-        <v>508</v>
+        <v>622</v>
       </c>
       <c r="E66" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3346,13 +3745,13 @@
         <v>72</v>
       </c>
       <c r="C67" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="D67" t="s">
-        <v>508</v>
+        <v>622</v>
       </c>
       <c r="E67" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3363,13 +3762,13 @@
         <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
-        <v>509</v>
+        <v>623</v>
       </c>
       <c r="E68" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3380,13 +3779,13 @@
         <v>74</v>
       </c>
       <c r="C69" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="D69" t="s">
-        <v>510</v>
+        <v>624</v>
       </c>
       <c r="E69" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3397,13 +3796,13 @@
         <v>75</v>
       </c>
       <c r="C70" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="D70" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
       <c r="E70" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3414,13 +3813,13 @@
         <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="D71" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
       <c r="E71" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3431,13 +3830,13 @@
         <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="D72" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
       <c r="E72" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3448,13 +3847,13 @@
         <v>78</v>
       </c>
       <c r="C73" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
-        <v>511</v>
+        <v>625</v>
       </c>
       <c r="E73" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3465,13 +3864,13 @@
         <v>79</v>
       </c>
       <c r="C74" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D74" t="s">
-        <v>512</v>
+        <v>626</v>
       </c>
       <c r="E74" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3482,13 +3881,13 @@
         <v>80</v>
       </c>
       <c r="C75" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="D75" t="s">
-        <v>512</v>
+        <v>626</v>
       </c>
       <c r="E75" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3499,13 +3898,13 @@
         <v>81</v>
       </c>
       <c r="C76" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="D76" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="E76" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3516,13 +3915,13 @@
         <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="D77" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="E77" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3533,13 +3932,13 @@
         <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="D78" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="E78" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3550,13 +3949,13 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="D79" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="E79" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3567,13 +3966,13 @@
         <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="D80" t="s">
-        <v>513</v>
+        <v>627</v>
       </c>
       <c r="E80" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3584,13 +3983,13 @@
         <v>86</v>
       </c>
       <c r="C81" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="D81" t="s">
-        <v>514</v>
+        <v>628</v>
       </c>
       <c r="E81" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3601,13 +4000,13 @@
         <v>87</v>
       </c>
       <c r="C82" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="D82" t="s">
-        <v>514</v>
+        <v>628</v>
       </c>
       <c r="E82" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3618,13 +4017,13 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="D83" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E83" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3635,13 +4034,13 @@
         <v>89</v>
       </c>
       <c r="C84" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="D84" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E84" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3652,13 +4051,13 @@
         <v>90</v>
       </c>
       <c r="C85" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="D85" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E85" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3669,13 +4068,13 @@
         <v>91</v>
       </c>
       <c r="C86" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="D86" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E86" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3686,13 +4085,13 @@
         <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="D87" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E87" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3703,13 +4102,13 @@
         <v>93</v>
       </c>
       <c r="C88" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="D88" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E88" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3720,13 +4119,13 @@
         <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="D89" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E89" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3737,13 +4136,13 @@
         <v>95</v>
       </c>
       <c r="C90" t="s">
-        <v>427</v>
+        <v>490</v>
       </c>
       <c r="D90" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E90" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3754,13 +4153,13 @@
         <v>96</v>
       </c>
       <c r="C91" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="D91" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="E91" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3771,13 +4170,13 @@
         <v>97</v>
       </c>
       <c r="C92" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D92" t="s">
-        <v>516</v>
+        <v>630</v>
       </c>
       <c r="E92" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3788,13 +4187,13 @@
         <v>98</v>
       </c>
       <c r="C93" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D93" t="s">
-        <v>517</v>
+        <v>631</v>
       </c>
       <c r="E93" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3805,13 +4204,13 @@
         <v>99</v>
       </c>
       <c r="C94" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D94" t="s">
-        <v>517</v>
+        <v>631</v>
       </c>
       <c r="E94" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3822,13 +4221,13 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="D95" t="s">
-        <v>517</v>
+        <v>631</v>
       </c>
       <c r="E95" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3839,13 +4238,13 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D96" t="s">
-        <v>517</v>
+        <v>631</v>
       </c>
       <c r="E96" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3856,13 +4255,13 @@
         <v>102</v>
       </c>
       <c r="C97" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="D97" t="s">
-        <v>518</v>
+        <v>632</v>
       </c>
       <c r="E97" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3873,13 +4272,13 @@
         <v>103</v>
       </c>
       <c r="C98" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="D98" t="s">
-        <v>519</v>
+        <v>633</v>
       </c>
       <c r="E98" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3890,13 +4289,13 @@
         <v>104</v>
       </c>
       <c r="C99" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="D99" t="s">
-        <v>520</v>
+        <v>634</v>
       </c>
       <c r="E99" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3907,13 +4306,13 @@
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="D100" t="s">
-        <v>521</v>
+        <v>635</v>
       </c>
       <c r="E100" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3924,13 +4323,13 @@
         <v>106</v>
       </c>
       <c r="C101" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="D101" t="s">
-        <v>521</v>
+        <v>635</v>
       </c>
       <c r="E101" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3941,13 +4340,13 @@
         <v>107</v>
       </c>
       <c r="C102" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="D102" t="s">
-        <v>521</v>
+        <v>635</v>
       </c>
       <c r="E102" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3958,13 +4357,13 @@
         <v>108</v>
       </c>
       <c r="C103" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="D103" t="s">
-        <v>521</v>
+        <v>635</v>
       </c>
       <c r="E103" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3975,13 +4374,13 @@
         <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D104" t="s">
-        <v>522</v>
+        <v>636</v>
       </c>
       <c r="E104" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3992,13 +4391,13 @@
         <v>110</v>
       </c>
       <c r="C105" t="s">
-        <v>435</v>
+        <v>498</v>
       </c>
       <c r="D105" t="s">
-        <v>523</v>
+        <v>637</v>
       </c>
       <c r="E105" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4009,13 +4408,13 @@
         <v>111</v>
       </c>
       <c r="C106" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="D106" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="E106" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4026,13 +4425,13 @@
         <v>112</v>
       </c>
       <c r="C107" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="D107" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="E107" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4043,13 +4442,13 @@
         <v>113</v>
       </c>
       <c r="C108" t="s">
-        <v>436</v>
+        <v>499</v>
       </c>
       <c r="D108" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="E108" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4060,13 +4459,13 @@
         <v>114</v>
       </c>
       <c r="C109" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="D109" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="E109" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4077,13 +4476,13 @@
         <v>115</v>
       </c>
       <c r="C110" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="D110" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="E110" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4094,13 +4493,13 @@
         <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="D111" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="E111" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4111,13 +4510,13 @@
         <v>117</v>
       </c>
       <c r="C112" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="D112" t="s">
-        <v>524</v>
+        <v>638</v>
       </c>
       <c r="E112" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4128,13 +4527,13 @@
         <v>118</v>
       </c>
       <c r="C113" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="D113" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="E113" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4145,13 +4544,13 @@
         <v>119</v>
       </c>
       <c r="C114" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="D114" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="E114" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4162,13 +4561,13 @@
         <v>120</v>
       </c>
       <c r="C115" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="D115" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="E115" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4179,13 +4578,13 @@
         <v>121</v>
       </c>
       <c r="C116" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="D116" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="E116" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4196,13 +4595,13 @@
         <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="D117" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="E117" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4213,13 +4612,13 @@
         <v>123</v>
       </c>
       <c r="C118" t="s">
-        <v>407</v>
+        <v>470</v>
       </c>
       <c r="D118" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="E118" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4230,13 +4629,13 @@
         <v>124</v>
       </c>
       <c r="C119" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
       <c r="D119" t="s">
-        <v>525</v>
+        <v>639</v>
       </c>
       <c r="E119" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4247,13 +4646,13 @@
         <v>125</v>
       </c>
       <c r="C120" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="D120" t="s">
-        <v>526</v>
+        <v>640</v>
       </c>
       <c r="E120" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4264,13 +4663,13 @@
         <v>126</v>
       </c>
       <c r="C121" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="D121" t="s">
-        <v>526</v>
+        <v>640</v>
       </c>
       <c r="E121" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4281,13 +4680,13 @@
         <v>127</v>
       </c>
       <c r="C122" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D122" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="E122" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4298,13 +4697,13 @@
         <v>128</v>
       </c>
       <c r="C123" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D123" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="E123" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4315,13 +4714,13 @@
         <v>129</v>
       </c>
       <c r="C124" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D124" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="E124" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4332,13 +4731,13 @@
         <v>130</v>
       </c>
       <c r="C125" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="D125" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="E125" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4349,13 +4748,13 @@
         <v>131</v>
       </c>
       <c r="C126" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D126" t="s">
-        <v>527</v>
+        <v>641</v>
       </c>
       <c r="E126" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4366,13 +4765,13 @@
         <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="D127" t="s">
-        <v>528</v>
+        <v>642</v>
       </c>
       <c r="E127" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4383,13 +4782,13 @@
         <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="D128" t="s">
-        <v>529</v>
+        <v>643</v>
       </c>
       <c r="E128" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4400,13 +4799,13 @@
         <v>134</v>
       </c>
       <c r="C129" t="s">
-        <v>394</v>
+        <v>457</v>
       </c>
       <c r="D129" t="s">
-        <v>530</v>
+        <v>644</v>
       </c>
       <c r="E129" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4417,13 +4816,13 @@
         <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="D130" t="s">
-        <v>531</v>
+        <v>645</v>
       </c>
       <c r="E130" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4434,13 +4833,13 @@
         <v>136</v>
       </c>
       <c r="C131" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="D131" t="s">
-        <v>531</v>
+        <v>645</v>
       </c>
       <c r="E131" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4451,13 +4850,13 @@
         <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="D132" t="s">
-        <v>531</v>
+        <v>645</v>
       </c>
       <c r="E132" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4468,13 +4867,13 @@
         <v>138</v>
       </c>
       <c r="C133" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="D133" t="s">
-        <v>531</v>
+        <v>645</v>
       </c>
       <c r="E133" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4485,13 +4884,13 @@
         <v>139</v>
       </c>
       <c r="C134" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="D134" t="s">
-        <v>532</v>
+        <v>646</v>
       </c>
       <c r="E134" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4502,13 +4901,13 @@
         <v>78</v>
       </c>
       <c r="C135" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="D135" t="s">
-        <v>533</v>
+        <v>647</v>
       </c>
       <c r="E135" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4519,13 +4918,13 @@
         <v>140</v>
       </c>
       <c r="C136" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="D136" t="s">
-        <v>534</v>
+        <v>648</v>
       </c>
       <c r="E136" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4536,13 +4935,13 @@
         <v>141</v>
       </c>
       <c r="C137" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="D137" t="s">
-        <v>534</v>
+        <v>648</v>
       </c>
       <c r="E137" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4553,13 +4952,13 @@
         <v>142</v>
       </c>
       <c r="C138" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="D138" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="E138" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4570,13 +4969,13 @@
         <v>143</v>
       </c>
       <c r="C139" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="D139" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="E139" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4587,13 +4986,13 @@
         <v>144</v>
       </c>
       <c r="C140" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="D140" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="E140" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4604,13 +5003,13 @@
         <v>145</v>
       </c>
       <c r="C141" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="D141" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="E141" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4621,13 +5020,13 @@
         <v>146</v>
       </c>
       <c r="C142" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="D142" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="E142" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4638,13 +5037,13 @@
         <v>147</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="D143" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="E143" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4655,13 +5054,13 @@
         <v>148</v>
       </c>
       <c r="C144" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="D144" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="E144" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4672,13 +5071,13 @@
         <v>149</v>
       </c>
       <c r="C145" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="D145" t="s">
-        <v>536</v>
+        <v>650</v>
       </c>
       <c r="E145" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4689,13 +5088,13 @@
         <v>150</v>
       </c>
       <c r="C146" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="D146" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="E146" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4706,13 +5105,13 @@
         <v>151</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>469</v>
       </c>
       <c r="D147" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="E147" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4723,13 +5122,13 @@
         <v>152</v>
       </c>
       <c r="C148" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="D148" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="E148" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4740,13 +5139,13 @@
         <v>153</v>
       </c>
       <c r="C149" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="D149" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="E149" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4757,13 +5156,13 @@
         <v>56</v>
       </c>
       <c r="C150" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="D150" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="E150" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4774,13 +5173,13 @@
         <v>154</v>
       </c>
       <c r="C151" t="s">
-        <v>444</v>
+        <v>507</v>
       </c>
       <c r="D151" t="s">
-        <v>537</v>
+        <v>651</v>
       </c>
       <c r="E151" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4791,13 +5190,13 @@
         <v>155</v>
       </c>
       <c r="C152" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D152" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="E152" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4808,13 +5207,13 @@
         <v>156</v>
       </c>
       <c r="C153" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D153" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="E153" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4825,13 +5224,13 @@
         <v>157</v>
       </c>
       <c r="C154" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D154" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="E154" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4842,13 +5241,13 @@
         <v>158</v>
       </c>
       <c r="C155" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="D155" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="E155" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4859,13 +5258,13 @@
         <v>159</v>
       </c>
       <c r="C156" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D156" t="s">
-        <v>538</v>
+        <v>652</v>
       </c>
       <c r="E156" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4876,13 +5275,13 @@
         <v>160</v>
       </c>
       <c r="C157" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="D157" t="s">
-        <v>539</v>
+        <v>653</v>
       </c>
       <c r="E157" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4893,13 +5292,13 @@
         <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="D158" t="s">
-        <v>540</v>
+        <v>654</v>
       </c>
       <c r="E158" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4910,13 +5309,13 @@
         <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="D159" t="s">
-        <v>541</v>
+        <v>655</v>
       </c>
       <c r="E159" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4927,13 +5326,13 @@
         <v>163</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="D160" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="E160" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4944,13 +5343,13 @@
         <v>164</v>
       </c>
       <c r="C161" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="D161" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="E161" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4961,13 +5360,13 @@
         <v>165</v>
       </c>
       <c r="C162" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="D162" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="E162" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4978,13 +5377,13 @@
         <v>166</v>
       </c>
       <c r="C163" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="D163" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="E163" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4995,13 +5394,13 @@
         <v>167</v>
       </c>
       <c r="C164" t="s">
-        <v>461</v>
+        <v>524</v>
       </c>
       <c r="D164" t="s">
-        <v>542</v>
+        <v>656</v>
       </c>
       <c r="E164" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5012,13 +5411,13 @@
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="D165" t="s">
-        <v>543</v>
+        <v>657</v>
       </c>
       <c r="E165" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5029,13 +5428,13 @@
         <v>94</v>
       </c>
       <c r="C166" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="D166" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="E166" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5046,13 +5445,13 @@
         <v>169</v>
       </c>
       <c r="C167" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="D167" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="E167" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5063,13 +5462,13 @@
         <v>170</v>
       </c>
       <c r="C168" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="D168" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="E168" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5080,13 +5479,13 @@
         <v>171</v>
       </c>
       <c r="C169" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="D169" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="E169" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5097,13 +5496,13 @@
         <v>172</v>
       </c>
       <c r="C170" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="D170" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="E170" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5114,13 +5513,13 @@
         <v>173</v>
       </c>
       <c r="C171" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="D171" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="E171" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5131,13 +5530,13 @@
         <v>174</v>
       </c>
       <c r="C172" t="s">
-        <v>462</v>
+        <v>525</v>
       </c>
       <c r="D172" t="s">
-        <v>544</v>
+        <v>658</v>
       </c>
       <c r="E172" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5148,13 +5547,13 @@
         <v>175</v>
       </c>
       <c r="C173" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="D173" t="s">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="E173" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5165,13 +5564,13 @@
         <v>176</v>
       </c>
       <c r="C174" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="D174" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="E174" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -5182,13 +5581,13 @@
         <v>177</v>
       </c>
       <c r="C175" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="D175" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="E175" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -5199,13 +5598,13 @@
         <v>178</v>
       </c>
       <c r="C176" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="D176" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="E176" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -5216,13 +5615,13 @@
         <v>179</v>
       </c>
       <c r="C177" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="D177" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="E177" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5233,13 +5632,13 @@
         <v>180</v>
       </c>
       <c r="C178" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="D178" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="E178" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5250,13 +5649,13 @@
         <v>181</v>
       </c>
       <c r="C179" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="D179" t="s">
-        <v>546</v>
+        <v>660</v>
       </c>
       <c r="E179" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5267,13 +5666,13 @@
         <v>182</v>
       </c>
       <c r="C180" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="D180" t="s">
-        <v>547</v>
+        <v>661</v>
       </c>
       <c r="E180" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5284,13 +5683,13 @@
         <v>183</v>
       </c>
       <c r="C181" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="D181" t="s">
-        <v>547</v>
+        <v>661</v>
       </c>
       <c r="E181" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5301,13 +5700,13 @@
         <v>184</v>
       </c>
       <c r="C182" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D182" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="E182" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5318,13 +5717,13 @@
         <v>185</v>
       </c>
       <c r="C183" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D183" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="E183" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5335,13 +5734,13 @@
         <v>186</v>
       </c>
       <c r="C184" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D184" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="E184" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5352,13 +5751,13 @@
         <v>187</v>
       </c>
       <c r="C185" t="s">
-        <v>411</v>
+        <v>474</v>
       </c>
       <c r="D185" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="E185" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5369,13 +5768,13 @@
         <v>188</v>
       </c>
       <c r="C186" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D186" t="s">
-        <v>548</v>
+        <v>662</v>
       </c>
       <c r="E186" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5386,13 +5785,13 @@
         <v>189</v>
       </c>
       <c r="C187" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="D187" t="s">
-        <v>549</v>
+        <v>663</v>
       </c>
       <c r="E187" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5403,13 +5802,13 @@
         <v>190</v>
       </c>
       <c r="C188" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="D188" t="s">
-        <v>550</v>
+        <v>664</v>
       </c>
       <c r="E188" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5420,13 +5819,13 @@
         <v>191</v>
       </c>
       <c r="C189" t="s">
-        <v>432</v>
+        <v>495</v>
       </c>
       <c r="D189" t="s">
-        <v>551</v>
+        <v>665</v>
       </c>
       <c r="E189" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5437,13 +5836,13 @@
         <v>192</v>
       </c>
       <c r="C190" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="D190" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="E190" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5454,13 +5853,13 @@
         <v>193</v>
       </c>
       <c r="C191" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="D191" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="E191" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5471,13 +5870,13 @@
         <v>194</v>
       </c>
       <c r="C192" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="D192" t="s">
-        <v>552</v>
+        <v>666</v>
       </c>
       <c r="E192" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5488,13 +5887,13 @@
         <v>195</v>
       </c>
       <c r="C193" t="s">
-        <v>460</v>
+        <v>523</v>
       </c>
       <c r="D193" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="E193" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5505,13 +5904,13 @@
         <v>196</v>
       </c>
       <c r="C194" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D194" t="s">
-        <v>553</v>
+        <v>667</v>
       </c>
       <c r="E194" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5522,13 +5921,13 @@
         <v>197</v>
       </c>
       <c r="C195" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="D195" t="s">
-        <v>554</v>
+        <v>668</v>
       </c>
       <c r="E195" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5539,13 +5938,13 @@
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="D196" t="s">
-        <v>555</v>
+        <v>669</v>
       </c>
       <c r="E196" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5556,13 +5955,13 @@
         <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="D197" t="s">
-        <v>555</v>
+        <v>669</v>
       </c>
       <c r="E197" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5573,13 +5972,13 @@
         <v>200</v>
       </c>
       <c r="C198" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="D198" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="E198" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5590,13 +5989,13 @@
         <v>201</v>
       </c>
       <c r="C199" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="D199" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="E199" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5607,13 +6006,13 @@
         <v>202</v>
       </c>
       <c r="C200" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="D200" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="E200" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5624,13 +6023,13 @@
         <v>203</v>
       </c>
       <c r="C201" t="s">
-        <v>467</v>
+        <v>530</v>
       </c>
       <c r="D201" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="E201" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5641,13 +6040,13 @@
         <v>204</v>
       </c>
       <c r="C202" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="D202" t="s">
-        <v>556</v>
+        <v>670</v>
       </c>
       <c r="E202" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5658,13 +6057,13 @@
         <v>205</v>
       </c>
       <c r="C203" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="D203" t="s">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="E203" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5675,13 +6074,13 @@
         <v>206</v>
       </c>
       <c r="C204" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="D204" t="s">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="E204" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5692,13 +6091,13 @@
         <v>207</v>
       </c>
       <c r="C205" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="D205" t="s">
-        <v>557</v>
+        <v>671</v>
       </c>
       <c r="E205" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5709,13 +6108,13 @@
         <v>208</v>
       </c>
       <c r="C206" t="s">
-        <v>383</v>
+        <v>446</v>
       </c>
       <c r="D206" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="E206" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5726,13 +6125,13 @@
         <v>209</v>
       </c>
       <c r="C207" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="D207" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="E207" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5743,13 +6142,13 @@
         <v>210</v>
       </c>
       <c r="C208" t="s">
-        <v>385</v>
+        <v>448</v>
       </c>
       <c r="D208" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="E208" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5760,13 +6159,13 @@
         <v>211</v>
       </c>
       <c r="C209" t="s">
-        <v>408</v>
+        <v>471</v>
       </c>
       <c r="D209" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="E209" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5777,13 +6176,13 @@
         <v>212</v>
       </c>
       <c r="C210" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="D210" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="E210" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5794,13 +6193,13 @@
         <v>213</v>
       </c>
       <c r="C211" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="D211" t="s">
-        <v>558</v>
+        <v>672</v>
       </c>
       <c r="E211" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5811,13 +6210,13 @@
         <v>214</v>
       </c>
       <c r="C212" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D212" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="E212" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5828,13 +6227,13 @@
         <v>215</v>
       </c>
       <c r="C213" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D213" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="E213" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5845,13 +6244,13 @@
         <v>216</v>
       </c>
       <c r="C214" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D214" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="E214" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5862,13 +6261,13 @@
         <v>217</v>
       </c>
       <c r="C215" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="D215" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="E215" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5879,13 +6278,13 @@
         <v>218</v>
       </c>
       <c r="C216" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D216" t="s">
-        <v>559</v>
+        <v>673</v>
       </c>
       <c r="E216" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5896,13 +6295,13 @@
         <v>219</v>
       </c>
       <c r="C217" t="s">
-        <v>392</v>
+        <v>455</v>
       </c>
       <c r="D217" t="s">
-        <v>560</v>
+        <v>674</v>
       </c>
       <c r="E217" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5913,13 +6312,13 @@
         <v>220</v>
       </c>
       <c r="C218" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="D218" t="s">
-        <v>561</v>
+        <v>675</v>
       </c>
       <c r="E218" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5930,13 +6329,13 @@
         <v>221</v>
       </c>
       <c r="C219" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="D219" t="s">
-        <v>562</v>
+        <v>676</v>
       </c>
       <c r="E219" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5947,13 +6346,13 @@
         <v>222</v>
       </c>
       <c r="C220" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="D220" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="E220" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5964,13 +6363,13 @@
         <v>223</v>
       </c>
       <c r="C221" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="D221" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="E221" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5981,13 +6380,13 @@
         <v>224</v>
       </c>
       <c r="C222" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="D222" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="E222" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5998,13 +6397,13 @@
         <v>225</v>
       </c>
       <c r="C223" t="s">
-        <v>398</v>
+        <v>461</v>
       </c>
       <c r="D223" t="s">
-        <v>563</v>
+        <v>677</v>
       </c>
       <c r="E223" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6015,13 +6414,13 @@
         <v>226</v>
       </c>
       <c r="C224" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D224" t="s">
-        <v>564</v>
+        <v>678</v>
       </c>
       <c r="E224" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6032,13 +6431,13 @@
         <v>227</v>
       </c>
       <c r="C225" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="D225" t="s">
-        <v>565</v>
+        <v>679</v>
       </c>
       <c r="E225" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6049,13 +6448,13 @@
         <v>228</v>
       </c>
       <c r="C226" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="D226" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
       <c r="E226" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6066,13 +6465,13 @@
         <v>229</v>
       </c>
       <c r="C227" t="s">
-        <v>419</v>
+        <v>482</v>
       </c>
       <c r="D227" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
       <c r="E227" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6083,13 +6482,13 @@
         <v>230</v>
       </c>
       <c r="C228" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="D228" t="s">
-        <v>566</v>
+        <v>680</v>
       </c>
       <c r="E228" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6100,13 +6499,13 @@
         <v>231</v>
       </c>
       <c r="C229" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="D229" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="E229" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6117,13 +6516,13 @@
         <v>232</v>
       </c>
       <c r="C230" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="D230" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="E230" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6134,13 +6533,13 @@
         <v>233</v>
       </c>
       <c r="C231" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="D231" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="E231" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6151,13 +6550,13 @@
         <v>234</v>
       </c>
       <c r="C232" t="s">
-        <v>455</v>
+        <v>518</v>
       </c>
       <c r="D232" t="s">
-        <v>567</v>
+        <v>681</v>
       </c>
       <c r="E232" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6168,13 +6567,13 @@
         <v>235</v>
       </c>
       <c r="C233" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="D233" t="s">
-        <v>568</v>
+        <v>682</v>
       </c>
       <c r="E233" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6185,13 +6584,13 @@
         <v>236</v>
       </c>
       <c r="C234" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="D234" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E234" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6202,13 +6601,13 @@
         <v>237</v>
       </c>
       <c r="C235" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="D235" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E235" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6219,13 +6618,13 @@
         <v>238</v>
       </c>
       <c r="C236" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="D236" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E236" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6236,13 +6635,13 @@
         <v>239</v>
       </c>
       <c r="C237" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="D237" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E237" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -6253,13 +6652,13 @@
         <v>240</v>
       </c>
       <c r="C238" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="D238" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E238" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -6270,13 +6669,13 @@
         <v>241</v>
       </c>
       <c r="C239" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D239" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E239" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -6287,13 +6686,13 @@
         <v>242</v>
       </c>
       <c r="C240" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="D240" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E240" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -6304,13 +6703,13 @@
         <v>212</v>
       </c>
       <c r="C241" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="D241" t="s">
-        <v>569</v>
+        <v>683</v>
       </c>
       <c r="E241" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -6321,13 +6720,13 @@
         <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D242" t="s">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="E242" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -6338,13 +6737,13 @@
         <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D243" t="s">
-        <v>570</v>
+        <v>684</v>
       </c>
       <c r="E243" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6355,13 +6754,13 @@
         <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D244" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="E244" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -6372,13 +6771,13 @@
         <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>363</v>
+        <v>426</v>
       </c>
       <c r="D245" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="E245" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -6389,13 +6788,13 @@
         <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D246" t="s">
-        <v>571</v>
+        <v>685</v>
       </c>
       <c r="E246" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -6406,13 +6805,13 @@
         <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="D247" t="s">
-        <v>572</v>
+        <v>686</v>
       </c>
       <c r="E247" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -6423,13 +6822,13 @@
         <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="D248" t="s">
-        <v>573</v>
+        <v>687</v>
       </c>
       <c r="E248" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -6440,13 +6839,13 @@
         <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="D249" t="s">
-        <v>574</v>
+        <v>688</v>
       </c>
       <c r="E249" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -6457,13 +6856,13 @@
         <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>414</v>
+        <v>477</v>
       </c>
       <c r="D250" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="E250" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -6474,13 +6873,13 @@
         <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="D251" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="E251" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -6491,13 +6890,13 @@
         <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="D252" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="E252" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -6508,13 +6907,13 @@
         <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>416</v>
+        <v>479</v>
       </c>
       <c r="D253" t="s">
-        <v>575</v>
+        <v>689</v>
       </c>
       <c r="E253" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -6525,13 +6924,13 @@
         <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="D254" t="s">
-        <v>576</v>
+        <v>690</v>
       </c>
       <c r="E254" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -6542,13 +6941,13 @@
         <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="D255" t="s">
-        <v>577</v>
+        <v>691</v>
       </c>
       <c r="E255" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -6559,13 +6958,13 @@
         <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="D256" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="E256" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -6576,13 +6975,13 @@
         <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>466</v>
+        <v>529</v>
       </c>
       <c r="D257" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="E257" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -6593,13 +6992,13 @@
         <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="D258" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="E258" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -6610,13 +7009,13 @@
         <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>437</v>
+        <v>500</v>
       </c>
       <c r="D259" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="E259" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -6627,13 +7026,13 @@
         <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="D260" t="s">
-        <v>578</v>
+        <v>692</v>
       </c>
       <c r="E260" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -6644,13 +7043,13 @@
         <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>467</v>
+        <v>530</v>
       </c>
       <c r="D261" t="s">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="E261" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -6661,13 +7060,13 @@
         <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="D262" t="s">
-        <v>579</v>
+        <v>693</v>
       </c>
       <c r="E262" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -6678,13 +7077,13 @@
         <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="D263" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="E263" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -6695,13 +7094,13 @@
         <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="D264" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="E264" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -6712,13 +7111,13 @@
         <v>266</v>
       </c>
       <c r="C265" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="D265" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="E265" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -6729,13 +7128,13 @@
         <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="D266" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="E266" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -6746,13 +7145,13 @@
         <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="D267" t="s">
-        <v>580</v>
+        <v>694</v>
       </c>
       <c r="E267" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -6763,13 +7162,13 @@
         <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="D268" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="E268" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -6780,13 +7179,13 @@
         <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D269" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="E269" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -6797,13 +7196,13 @@
         <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>387</v>
+        <v>450</v>
       </c>
       <c r="D270" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="E270" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -6814,13 +7213,13 @@
         <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="D271" t="s">
-        <v>581</v>
+        <v>695</v>
       </c>
       <c r="E271" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -6831,13 +7230,13 @@
         <v>273</v>
       </c>
       <c r="C272" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D272" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="E272" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -6848,13 +7247,13 @@
         <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D273" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="E273" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -6865,13 +7264,13 @@
         <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D274" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="E274" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -6882,13 +7281,13 @@
         <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="D275" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="E275" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -6899,13 +7298,13 @@
         <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D276" t="s">
-        <v>582</v>
+        <v>696</v>
       </c>
       <c r="E276" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -6916,13 +7315,13 @@
         <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="D277" t="s">
-        <v>583</v>
+        <v>697</v>
       </c>
       <c r="E277" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -6933,13 +7332,13 @@
         <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="D278" t="s">
-        <v>584</v>
+        <v>698</v>
       </c>
       <c r="E278" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -6950,13 +7349,13 @@
         <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="D279" t="s">
-        <v>585</v>
+        <v>699</v>
       </c>
       <c r="E279" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -6967,13 +7366,13 @@
         <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>433</v>
+        <v>496</v>
       </c>
       <c r="D280" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
       <c r="E280" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -6984,13 +7383,13 @@
         <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="D281" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
       <c r="E281" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7001,13 +7400,13 @@
         <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="D282" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
       <c r="E282" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7018,13 +7417,13 @@
         <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="D283" t="s">
-        <v>586</v>
+        <v>700</v>
       </c>
       <c r="E283" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7035,13 +7434,13 @@
         <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="D284" t="s">
-        <v>587</v>
+        <v>701</v>
       </c>
       <c r="E284" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7052,13 +7451,13 @@
         <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>417</v>
+        <v>480</v>
       </c>
       <c r="D285" t="s">
-        <v>587</v>
+        <v>701</v>
       </c>
       <c r="E285" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7069,13 +7468,13 @@
         <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="D286" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="E286" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7086,13 +7485,13 @@
         <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="D287" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="E287" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7103,13 +7502,13 @@
         <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>482</v>
+        <v>545</v>
       </c>
       <c r="D288" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="E288" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7120,13 +7519,13 @@
         <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>376</v>
+        <v>439</v>
       </c>
       <c r="D289" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="E289" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7137,13 +7536,13 @@
         <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>420</v>
+        <v>483</v>
       </c>
       <c r="D290" t="s">
-        <v>588</v>
+        <v>702</v>
       </c>
       <c r="E290" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7154,13 +7553,13 @@
         <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="D291" t="s">
-        <v>589</v>
+        <v>703</v>
       </c>
       <c r="E291" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7171,13 +7570,13 @@
         <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="D292" t="s">
-        <v>589</v>
+        <v>703</v>
       </c>
       <c r="E292" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -7188,13 +7587,13 @@
         <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="D293" t="s">
-        <v>590</v>
+        <v>704</v>
       </c>
       <c r="E293" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -7205,13 +7604,13 @@
         <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="D294" t="s">
-        <v>590</v>
+        <v>704</v>
       </c>
       <c r="E294" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -7222,13 +7621,13 @@
         <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="D295" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="E295" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -7239,13 +7638,13 @@
         <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>425</v>
+        <v>488</v>
       </c>
       <c r="D296" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="E296" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -7256,13 +7655,13 @@
         <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="D297" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="E297" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -7273,13 +7672,13 @@
         <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>456</v>
+        <v>519</v>
       </c>
       <c r="D298" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="E298" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -7290,13 +7689,13 @@
         <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>483</v>
+        <v>546</v>
       </c>
       <c r="D299" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="E299" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -7307,13 +7706,13 @@
         <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="D300" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="E300" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -7324,13 +7723,13 @@
         <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="D301" t="s">
-        <v>591</v>
+        <v>705</v>
       </c>
       <c r="E301" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -7341,13 +7740,13 @@
         <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>362</v>
+        <v>425</v>
       </c>
       <c r="D302" t="s">
-        <v>592</v>
+        <v>706</v>
       </c>
       <c r="E302" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -7358,13 +7757,13 @@
         <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>390</v>
+        <v>453</v>
       </c>
       <c r="D303" t="s">
-        <v>592</v>
+        <v>706</v>
       </c>
       <c r="E303" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -7375,13 +7774,13 @@
         <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>389</v>
+        <v>452</v>
       </c>
       <c r="D304" t="s">
-        <v>592</v>
+        <v>706</v>
       </c>
       <c r="E304" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -7392,13 +7791,13 @@
         <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>445</v>
+        <v>508</v>
       </c>
       <c r="D305" t="s">
-        <v>593</v>
+        <v>707</v>
       </c>
       <c r="E305" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -7409,13 +7808,13 @@
         <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D306" t="s">
-        <v>593</v>
+        <v>707</v>
       </c>
       <c r="E306" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -7426,13 +7825,13 @@
         <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>430</v>
+        <v>493</v>
       </c>
       <c r="D307" t="s">
-        <v>594</v>
+        <v>708</v>
       </c>
       <c r="E307" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -7443,13 +7842,13 @@
         <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>365</v>
+        <v>428</v>
       </c>
       <c r="D308" t="s">
-        <v>595</v>
+        <v>709</v>
       </c>
       <c r="E308" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -7460,13 +7859,13 @@
         <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
       <c r="D309" t="s">
-        <v>596</v>
+        <v>710</v>
       </c>
       <c r="E309" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -7477,13 +7876,13 @@
         <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>367</v>
+        <v>430</v>
       </c>
       <c r="D310" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="E310" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -7494,13 +7893,13 @@
         <v>20</v>
       </c>
       <c r="C311" t="s">
-        <v>415</v>
+        <v>478</v>
       </c>
       <c r="D311" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="E311" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -7511,13 +7910,13 @@
         <v>312</v>
       </c>
       <c r="C312" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="D312" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="E312" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -7528,13 +7927,13 @@
         <v>313</v>
       </c>
       <c r="C313" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="D313" t="s">
-        <v>597</v>
+        <v>711</v>
       </c>
       <c r="E313" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -7545,13 +7944,13 @@
         <v>314</v>
       </c>
       <c r="C314" t="s">
-        <v>371</v>
+        <v>434</v>
       </c>
       <c r="D314" t="s">
-        <v>598</v>
+        <v>712</v>
       </c>
       <c r="E314" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -7562,13 +7961,13 @@
         <v>315</v>
       </c>
       <c r="C315" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="D315" t="s">
-        <v>598</v>
+        <v>712</v>
       </c>
       <c r="E315" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -7579,13 +7978,13 @@
         <v>316</v>
       </c>
       <c r="C316" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="D316" t="s">
-        <v>599</v>
+        <v>713</v>
       </c>
       <c r="E316" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -7596,13 +7995,13 @@
         <v>317</v>
       </c>
       <c r="C317" t="s">
-        <v>374</v>
+        <v>437</v>
       </c>
       <c r="D317" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="E317" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -7613,13 +8012,13 @@
         <v>318</v>
       </c>
       <c r="C318" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
       <c r="D318" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="E318" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -7630,13 +8029,13 @@
         <v>319</v>
       </c>
       <c r="C319" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="D319" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="E319" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -7647,13 +8046,13 @@
         <v>320</v>
       </c>
       <c r="C320" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="D320" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="E320" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -7664,13 +8063,13 @@
         <v>321</v>
       </c>
       <c r="C321" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="D321" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="E321" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -7681,13 +8080,13 @@
         <v>322</v>
       </c>
       <c r="C322" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="D322" t="s">
-        <v>600</v>
+        <v>714</v>
       </c>
       <c r="E322" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -7698,13 +8097,13 @@
         <v>323</v>
       </c>
       <c r="C323" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="D323" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E323" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -7715,13 +8114,13 @@
         <v>324</v>
       </c>
       <c r="C324" t="s">
-        <v>478</v>
+        <v>541</v>
       </c>
       <c r="D324" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E324" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -7732,13 +8131,13 @@
         <v>325</v>
       </c>
       <c r="C325" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="D325" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E325" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -7749,13 +8148,13 @@
         <v>326</v>
       </c>
       <c r="C326" t="s">
-        <v>485</v>
+        <v>548</v>
       </c>
       <c r="D326" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E326" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -7766,13 +8165,13 @@
         <v>327</v>
       </c>
       <c r="C327" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="D327" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E327" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -7783,13 +8182,13 @@
         <v>328</v>
       </c>
       <c r="C328" t="s">
-        <v>463</v>
+        <v>526</v>
       </c>
       <c r="D328" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E328" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -7800,13 +8199,13 @@
         <v>329</v>
       </c>
       <c r="C329" t="s">
-        <v>386</v>
+        <v>449</v>
       </c>
       <c r="D329" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E329" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -7817,13 +8216,13 @@
         <v>330</v>
       </c>
       <c r="C330" t="s">
-        <v>457</v>
+        <v>520</v>
       </c>
       <c r="D330" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E330" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -7834,13 +8233,13 @@
         <v>331</v>
       </c>
       <c r="C331" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="D331" t="s">
-        <v>601</v>
+        <v>715</v>
       </c>
       <c r="E331" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -7851,13 +8250,13 @@
         <v>332</v>
       </c>
       <c r="C332" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D332" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="E332" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -7868,13 +8267,13 @@
         <v>333</v>
       </c>
       <c r="C333" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D333" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="E333" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -7885,13 +8284,13 @@
         <v>334</v>
       </c>
       <c r="C334" t="s">
-        <v>361</v>
+        <v>424</v>
       </c>
       <c r="D334" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="E334" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -7902,13 +8301,13 @@
         <v>335</v>
       </c>
       <c r="C335" t="s">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="D335" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="E335" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -7919,13 +8318,13 @@
         <v>336</v>
       </c>
       <c r="C336" t="s">
-        <v>429</v>
+        <v>492</v>
       </c>
       <c r="D336" t="s">
-        <v>602</v>
+        <v>716</v>
       </c>
       <c r="E336" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -7936,13 +8335,13 @@
         <v>337</v>
       </c>
       <c r="C337" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="D337" t="s">
-        <v>603</v>
+        <v>717</v>
       </c>
       <c r="E337" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -7953,13 +8352,13 @@
         <v>338</v>
       </c>
       <c r="C338" t="s">
-        <v>412</v>
+        <v>475</v>
       </c>
       <c r="D338" t="s">
-        <v>604</v>
+        <v>718</v>
       </c>
       <c r="E338" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -7970,13 +8369,13 @@
         <v>339</v>
       </c>
       <c r="C339" t="s">
-        <v>459</v>
+        <v>522</v>
       </c>
       <c r="D339" t="s">
-        <v>605</v>
+        <v>719</v>
       </c>
       <c r="E339" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -7987,13 +8386,13 @@
         <v>340</v>
       </c>
       <c r="C340" t="s">
-        <v>395</v>
+        <v>458</v>
       </c>
       <c r="D340" t="s">
-        <v>606</v>
+        <v>720</v>
       </c>
       <c r="E340" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8004,13 +8403,13 @@
         <v>209</v>
       </c>
       <c r="C341" t="s">
-        <v>434</v>
+        <v>497</v>
       </c>
       <c r="D341" t="s">
-        <v>606</v>
+        <v>720</v>
       </c>
       <c r="E341" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8021,13 +8420,13 @@
         <v>341</v>
       </c>
       <c r="C342" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="D342" t="s">
-        <v>606</v>
+        <v>720</v>
       </c>
       <c r="E342" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8038,13 +8437,13 @@
         <v>342</v>
       </c>
       <c r="C343" t="s">
-        <v>484</v>
+        <v>547</v>
       </c>
       <c r="D343" t="s">
-        <v>607</v>
+        <v>721</v>
       </c>
       <c r="E343" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8055,13 +8454,13 @@
         <v>343</v>
       </c>
       <c r="C344" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="D344" t="s">
-        <v>607</v>
+        <v>721</v>
       </c>
       <c r="E344" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8072,13 +8471,13 @@
         <v>344</v>
       </c>
       <c r="C345" t="s">
-        <v>372</v>
+        <v>435</v>
       </c>
       <c r="D345" t="s">
-        <v>608</v>
+        <v>722</v>
       </c>
       <c r="E345" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8089,13 +8488,13 @@
         <v>345</v>
       </c>
       <c r="C346" t="s">
-        <v>418</v>
+        <v>481</v>
       </c>
       <c r="D346" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="E346" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8106,13 +8505,13 @@
         <v>346</v>
       </c>
       <c r="C347" t="s">
-        <v>481</v>
+        <v>544</v>
       </c>
       <c r="D347" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="E347" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8123,13 +8522,13 @@
         <v>347</v>
       </c>
       <c r="C348" t="s">
-        <v>486</v>
+        <v>549</v>
       </c>
       <c r="D348" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="E348" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8140,13 +8539,13 @@
         <v>348</v>
       </c>
       <c r="C349" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="D349" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="E349" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8157,13 +8556,13 @@
         <v>349</v>
       </c>
       <c r="C350" t="s">
-        <v>377</v>
+        <v>440</v>
       </c>
       <c r="D350" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="E350" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8174,13 +8573,13 @@
         <v>350</v>
       </c>
       <c r="C351" t="s">
-        <v>421</v>
+        <v>484</v>
       </c>
       <c r="D351" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="E351" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -8191,13 +8590,13 @@
         <v>351</v>
       </c>
       <c r="C352" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="D352" t="s">
-        <v>609</v>
+        <v>723</v>
       </c>
       <c r="E352" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8208,13 +8607,13 @@
         <v>352</v>
       </c>
       <c r="C353" t="s">
-        <v>477</v>
+        <v>540</v>
       </c>
       <c r="D353" t="s">
-        <v>610</v>
+        <v>724</v>
       </c>
       <c r="E353" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8225,13 +8624,13 @@
         <v>353</v>
       </c>
       <c r="C354" t="s">
-        <v>423</v>
+        <v>486</v>
       </c>
       <c r="D354" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E354" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -8242,13 +8641,13 @@
         <v>354</v>
       </c>
       <c r="C355" t="s">
-        <v>382</v>
+        <v>445</v>
       </c>
       <c r="D355" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E355" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -8259,13 +8658,13 @@
         <v>355</v>
       </c>
       <c r="C356" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
       <c r="D356" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E356" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -8276,13 +8675,13 @@
         <v>356</v>
       </c>
       <c r="C357" t="s">
-        <v>426</v>
+        <v>489</v>
       </c>
       <c r="D357" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E357" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -8293,13 +8692,13 @@
         <v>357</v>
       </c>
       <c r="C358" t="s">
-        <v>487</v>
+        <v>550</v>
       </c>
       <c r="D358" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E358" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8310,13 +8709,13 @@
         <v>358</v>
       </c>
       <c r="C359" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="D359" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E359" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -8327,13 +8726,13 @@
         <v>359</v>
       </c>
       <c r="C360" t="s">
-        <v>409</v>
+        <v>472</v>
       </c>
       <c r="D360" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E360" t="s">
-        <v>612</v>
+        <v>745</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -8344,13 +8743,1186 @@
         <v>360</v>
       </c>
       <c r="C361" t="s">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="D361" t="s">
-        <v>611</v>
+        <v>725</v>
       </c>
       <c r="E361" t="s">
-        <v>612</v>
+        <v>745</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" t="s">
+        <v>361</v>
+      </c>
+      <c r="C362" t="s">
+        <v>551</v>
+      </c>
+      <c r="D362" t="s">
+        <v>726</v>
+      </c>
+      <c r="E362" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>362</v>
+      </c>
+      <c r="C363" t="s">
+        <v>552</v>
+      </c>
+      <c r="D363" t="s">
+        <v>726</v>
+      </c>
+      <c r="E363" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s">
+        <v>363</v>
+      </c>
+      <c r="C364" t="s">
+        <v>553</v>
+      </c>
+      <c r="D364" t="s">
+        <v>727</v>
+      </c>
+      <c r="E364" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" t="s">
+        <v>364</v>
+      </c>
+      <c r="C365" t="s">
+        <v>554</v>
+      </c>
+      <c r="D365" t="s">
+        <v>727</v>
+      </c>
+      <c r="E365" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" t="s">
+        <v>365</v>
+      </c>
+      <c r="C366" t="s">
+        <v>553</v>
+      </c>
+      <c r="D366" t="s">
+        <v>727</v>
+      </c>
+      <c r="E366" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>5</v>
+      </c>
+      <c r="B367" t="s">
+        <v>366</v>
+      </c>
+      <c r="C367" t="s">
+        <v>555</v>
+      </c>
+      <c r="D367" t="s">
+        <v>727</v>
+      </c>
+      <c r="E367" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>5</v>
+      </c>
+      <c r="B368" t="s">
+        <v>367</v>
+      </c>
+      <c r="C368" t="s">
+        <v>556</v>
+      </c>
+      <c r="D368" t="s">
+        <v>727</v>
+      </c>
+      <c r="E368" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" t="s">
+        <v>368</v>
+      </c>
+      <c r="C369" t="s">
+        <v>557</v>
+      </c>
+      <c r="D369" t="s">
+        <v>728</v>
+      </c>
+      <c r="E369" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370" t="s">
+        <v>369</v>
+      </c>
+      <c r="C370" t="s">
+        <v>558</v>
+      </c>
+      <c r="D370" t="s">
+        <v>728</v>
+      </c>
+      <c r="E370" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>370</v>
+      </c>
+      <c r="C371" t="s">
+        <v>552</v>
+      </c>
+      <c r="D371" t="s">
+        <v>728</v>
+      </c>
+      <c r="E371" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" t="s">
+        <v>371</v>
+      </c>
+      <c r="C372" t="s">
+        <v>559</v>
+      </c>
+      <c r="D372" t="s">
+        <v>728</v>
+      </c>
+      <c r="E372" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" t="s">
+        <v>372</v>
+      </c>
+      <c r="C373" t="s">
+        <v>560</v>
+      </c>
+      <c r="D373" t="s">
+        <v>729</v>
+      </c>
+      <c r="E373" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>6</v>
+      </c>
+      <c r="B374" t="s">
+        <v>373</v>
+      </c>
+      <c r="C374" t="s">
+        <v>561</v>
+      </c>
+      <c r="D374" t="s">
+        <v>730</v>
+      </c>
+      <c r="E374" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>6</v>
+      </c>
+      <c r="B375" t="s">
+        <v>374</v>
+      </c>
+      <c r="C375" t="s">
+        <v>562</v>
+      </c>
+      <c r="D375" t="s">
+        <v>730</v>
+      </c>
+      <c r="E375" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>6</v>
+      </c>
+      <c r="B376" t="s">
+        <v>375</v>
+      </c>
+      <c r="C376" t="s">
+        <v>563</v>
+      </c>
+      <c r="D376" t="s">
+        <v>731</v>
+      </c>
+      <c r="E376" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>6</v>
+      </c>
+      <c r="B377" t="s">
+        <v>376</v>
+      </c>
+      <c r="C377" t="s">
+        <v>564</v>
+      </c>
+      <c r="D377" t="s">
+        <v>732</v>
+      </c>
+      <c r="E377" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>6</v>
+      </c>
+      <c r="B378" t="s">
+        <v>377</v>
+      </c>
+      <c r="C378" t="s">
+        <v>565</v>
+      </c>
+      <c r="D378" t="s">
+        <v>732</v>
+      </c>
+      <c r="E378" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>6</v>
+      </c>
+      <c r="B379" t="s">
+        <v>378</v>
+      </c>
+      <c r="C379" t="s">
+        <v>558</v>
+      </c>
+      <c r="D379" t="s">
+        <v>733</v>
+      </c>
+      <c r="E379" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>6</v>
+      </c>
+      <c r="B380" t="s">
+        <v>379</v>
+      </c>
+      <c r="C380" t="s">
+        <v>566</v>
+      </c>
+      <c r="D380" t="s">
+        <v>734</v>
+      </c>
+      <c r="E380" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>6</v>
+      </c>
+      <c r="B381" t="s">
+        <v>380</v>
+      </c>
+      <c r="C381" t="s">
+        <v>567</v>
+      </c>
+      <c r="D381" t="s">
+        <v>734</v>
+      </c>
+      <c r="E381" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>6</v>
+      </c>
+      <c r="B382" t="s">
+        <v>381</v>
+      </c>
+      <c r="C382" t="s">
+        <v>568</v>
+      </c>
+      <c r="D382" t="s">
+        <v>734</v>
+      </c>
+      <c r="E382" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>6</v>
+      </c>
+      <c r="B383" t="s">
+        <v>382</v>
+      </c>
+      <c r="C383" t="s">
+        <v>569</v>
+      </c>
+      <c r="D383" t="s">
+        <v>734</v>
+      </c>
+      <c r="E383" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>6</v>
+      </c>
+      <c r="B384" t="s">
+        <v>383</v>
+      </c>
+      <c r="C384" t="s">
+        <v>570</v>
+      </c>
+      <c r="D384" t="s">
+        <v>734</v>
+      </c>
+      <c r="E384" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>6</v>
+      </c>
+      <c r="B385" t="s">
+        <v>384</v>
+      </c>
+      <c r="C385" t="s">
+        <v>571</v>
+      </c>
+      <c r="D385" t="s">
+        <v>734</v>
+      </c>
+      <c r="E385" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>6</v>
+      </c>
+      <c r="B386" t="s">
+        <v>385</v>
+      </c>
+      <c r="C386" t="s">
+        <v>572</v>
+      </c>
+      <c r="D386" t="s">
+        <v>735</v>
+      </c>
+      <c r="E386" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>6</v>
+      </c>
+      <c r="B387" t="s">
+        <v>386</v>
+      </c>
+      <c r="C387" t="s">
+        <v>573</v>
+      </c>
+      <c r="D387" t="s">
+        <v>735</v>
+      </c>
+      <c r="E387" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>6</v>
+      </c>
+      <c r="B388" t="s">
+        <v>387</v>
+      </c>
+      <c r="C388" t="s">
+        <v>432</v>
+      </c>
+      <c r="D388" t="s">
+        <v>735</v>
+      </c>
+      <c r="E388" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>6</v>
+      </c>
+      <c r="B389" t="s">
+        <v>388</v>
+      </c>
+      <c r="C389" t="s">
+        <v>547</v>
+      </c>
+      <c r="D389" t="s">
+        <v>735</v>
+      </c>
+      <c r="E389" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>6</v>
+      </c>
+      <c r="B390" t="s">
+        <v>389</v>
+      </c>
+      <c r="C390" t="s">
+        <v>574</v>
+      </c>
+      <c r="D390" t="s">
+        <v>736</v>
+      </c>
+      <c r="E390" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>6</v>
+      </c>
+      <c r="B391" t="s">
+        <v>390</v>
+      </c>
+      <c r="C391" t="s">
+        <v>575</v>
+      </c>
+      <c r="D391" t="s">
+        <v>736</v>
+      </c>
+      <c r="E391" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>6</v>
+      </c>
+      <c r="B392" t="s">
+        <v>391</v>
+      </c>
+      <c r="C392" t="s">
+        <v>576</v>
+      </c>
+      <c r="D392" t="s">
+        <v>737</v>
+      </c>
+      <c r="E392" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>6</v>
+      </c>
+      <c r="B393" t="s">
+        <v>392</v>
+      </c>
+      <c r="C393" t="s">
+        <v>577</v>
+      </c>
+      <c r="D393" t="s">
+        <v>737</v>
+      </c>
+      <c r="E393" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>6</v>
+      </c>
+      <c r="B394" t="s">
+        <v>393</v>
+      </c>
+      <c r="C394" t="s">
+        <v>578</v>
+      </c>
+      <c r="D394" t="s">
+        <v>738</v>
+      </c>
+      <c r="E394" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>6</v>
+      </c>
+      <c r="B395" t="s">
+        <v>394</v>
+      </c>
+      <c r="C395" t="s">
+        <v>579</v>
+      </c>
+      <c r="D395" t="s">
+        <v>738</v>
+      </c>
+      <c r="E395" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>6</v>
+      </c>
+      <c r="B396" t="s">
+        <v>395</v>
+      </c>
+      <c r="C396" t="s">
+        <v>580</v>
+      </c>
+      <c r="D396" t="s">
+        <v>738</v>
+      </c>
+      <c r="E396" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>6</v>
+      </c>
+      <c r="B397" t="s">
+        <v>396</v>
+      </c>
+      <c r="C397" t="s">
+        <v>581</v>
+      </c>
+      <c r="D397" t="s">
+        <v>738</v>
+      </c>
+      <c r="E397" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>6</v>
+      </c>
+      <c r="B398" t="s">
+        <v>397</v>
+      </c>
+      <c r="C398" t="s">
+        <v>529</v>
+      </c>
+      <c r="D398" t="s">
+        <v>739</v>
+      </c>
+      <c r="E398" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>6</v>
+      </c>
+      <c r="B399" t="s">
+        <v>398</v>
+      </c>
+      <c r="C399" t="s">
+        <v>582</v>
+      </c>
+      <c r="D399" t="s">
+        <v>739</v>
+      </c>
+      <c r="E399" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>6</v>
+      </c>
+      <c r="B400" t="s">
+        <v>399</v>
+      </c>
+      <c r="C400" t="s">
+        <v>583</v>
+      </c>
+      <c r="D400" t="s">
+        <v>739</v>
+      </c>
+      <c r="E400" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>6</v>
+      </c>
+      <c r="B401" t="s">
+        <v>399</v>
+      </c>
+      <c r="C401" t="s">
+        <v>584</v>
+      </c>
+      <c r="D401" t="s">
+        <v>739</v>
+      </c>
+      <c r="E401" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>6</v>
+      </c>
+      <c r="B402" t="s">
+        <v>400</v>
+      </c>
+      <c r="C402" t="s">
+        <v>549</v>
+      </c>
+      <c r="D402" t="s">
+        <v>739</v>
+      </c>
+      <c r="E402" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>6</v>
+      </c>
+      <c r="B403" t="s">
+        <v>401</v>
+      </c>
+      <c r="C403" t="s">
+        <v>585</v>
+      </c>
+      <c r="D403" t="s">
+        <v>739</v>
+      </c>
+      <c r="E403" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>6</v>
+      </c>
+      <c r="B404" t="s">
+        <v>402</v>
+      </c>
+      <c r="C404" t="s">
+        <v>586</v>
+      </c>
+      <c r="D404" t="s">
+        <v>740</v>
+      </c>
+      <c r="E404" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>6</v>
+      </c>
+      <c r="B405" t="s">
+        <v>403</v>
+      </c>
+      <c r="C405" t="s">
+        <v>587</v>
+      </c>
+      <c r="D405" t="s">
+        <v>740</v>
+      </c>
+      <c r="E405" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" t="s">
+        <v>404</v>
+      </c>
+      <c r="C406" t="s">
+        <v>466</v>
+      </c>
+      <c r="D406" t="s">
+        <v>740</v>
+      </c>
+      <c r="E406" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" t="s">
+        <v>6</v>
+      </c>
+      <c r="B407" t="s">
+        <v>405</v>
+      </c>
+      <c r="C407" t="s">
+        <v>588</v>
+      </c>
+      <c r="D407" t="s">
+        <v>740</v>
+      </c>
+      <c r="E407" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B408" t="s">
+        <v>406</v>
+      </c>
+      <c r="C408" t="s">
+        <v>589</v>
+      </c>
+      <c r="D408" t="s">
+        <v>740</v>
+      </c>
+      <c r="E408" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" t="s">
+        <v>6</v>
+      </c>
+      <c r="B409" t="s">
+        <v>407</v>
+      </c>
+      <c r="C409" t="s">
+        <v>518</v>
+      </c>
+      <c r="D409" t="s">
+        <v>740</v>
+      </c>
+      <c r="E409" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" t="s">
+        <v>6</v>
+      </c>
+      <c r="B410" t="s">
+        <v>408</v>
+      </c>
+      <c r="C410" t="s">
+        <v>590</v>
+      </c>
+      <c r="D410" t="s">
+        <v>741</v>
+      </c>
+      <c r="E410" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" t="s">
+        <v>6</v>
+      </c>
+      <c r="B411" t="s">
+        <v>409</v>
+      </c>
+      <c r="C411" t="s">
+        <v>591</v>
+      </c>
+      <c r="D411" t="s">
+        <v>741</v>
+      </c>
+      <c r="E411" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" t="s">
+        <v>6</v>
+      </c>
+      <c r="B412" t="s">
+        <v>410</v>
+      </c>
+      <c r="C412" t="s">
+        <v>592</v>
+      </c>
+      <c r="D412" t="s">
+        <v>741</v>
+      </c>
+      <c r="E412" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" t="s">
+        <v>6</v>
+      </c>
+      <c r="B413" t="s">
+        <v>411</v>
+      </c>
+      <c r="C413" t="s">
+        <v>593</v>
+      </c>
+      <c r="D413" t="s">
+        <v>741</v>
+      </c>
+      <c r="E413" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" t="s">
+        <v>6</v>
+      </c>
+      <c r="B414" t="s">
+        <v>412</v>
+      </c>
+      <c r="C414" t="s">
+        <v>594</v>
+      </c>
+      <c r="D414" t="s">
+        <v>741</v>
+      </c>
+      <c r="E414" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" t="s">
+        <v>6</v>
+      </c>
+      <c r="B415" t="s">
+        <v>413</v>
+      </c>
+      <c r="C415" t="s">
+        <v>595</v>
+      </c>
+      <c r="D415" t="s">
+        <v>742</v>
+      </c>
+      <c r="E415" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" t="s">
+        <v>6</v>
+      </c>
+      <c r="B416" t="s">
+        <v>414</v>
+      </c>
+      <c r="C416" t="s">
+        <v>596</v>
+      </c>
+      <c r="D416" t="s">
+        <v>742</v>
+      </c>
+      <c r="E416" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" t="s">
+        <v>6</v>
+      </c>
+      <c r="B417" t="s">
+        <v>413</v>
+      </c>
+      <c r="C417" t="s">
+        <v>595</v>
+      </c>
+      <c r="D417" t="s">
+        <v>742</v>
+      </c>
+      <c r="E417" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" t="s">
+        <v>6</v>
+      </c>
+      <c r="B418" t="s">
+        <v>415</v>
+      </c>
+      <c r="C418" t="s">
+        <v>597</v>
+      </c>
+      <c r="D418" t="s">
+        <v>742</v>
+      </c>
+      <c r="E418" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" t="s">
+        <v>6</v>
+      </c>
+      <c r="B419" t="s">
+        <v>416</v>
+      </c>
+      <c r="C419" t="s">
+        <v>548</v>
+      </c>
+      <c r="D419" t="s">
+        <v>742</v>
+      </c>
+      <c r="E419" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" t="s">
+        <v>6</v>
+      </c>
+      <c r="B420" t="s">
+        <v>417</v>
+      </c>
+      <c r="C420" t="s">
+        <v>598</v>
+      </c>
+      <c r="D420" t="s">
+        <v>742</v>
+      </c>
+      <c r="E420" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" t="s">
+        <v>6</v>
+      </c>
+      <c r="B421" t="s">
+        <v>418</v>
+      </c>
+      <c r="C421" t="s">
+        <v>599</v>
+      </c>
+      <c r="D421" t="s">
+        <v>743</v>
+      </c>
+      <c r="E421" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" t="s">
+        <v>6</v>
+      </c>
+      <c r="B422" t="s">
+        <v>419</v>
+      </c>
+      <c r="C422" t="s">
+        <v>600</v>
+      </c>
+      <c r="D422" t="s">
+        <v>743</v>
+      </c>
+      <c r="E422" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" t="s">
+        <v>6</v>
+      </c>
+      <c r="B423" t="s">
+        <v>408</v>
+      </c>
+      <c r="C423" t="s">
+        <v>590</v>
+      </c>
+      <c r="D423" t="s">
+        <v>743</v>
+      </c>
+      <c r="E423" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" t="s">
+        <v>6</v>
+      </c>
+      <c r="B424" t="s">
+        <v>413</v>
+      </c>
+      <c r="C424" t="s">
+        <v>595</v>
+      </c>
+      <c r="D424" t="s">
+        <v>743</v>
+      </c>
+      <c r="E424" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" t="s">
+        <v>6</v>
+      </c>
+      <c r="B425" t="s">
+        <v>420</v>
+      </c>
+      <c r="C425" t="s">
+        <v>535</v>
+      </c>
+      <c r="D425" t="s">
+        <v>743</v>
+      </c>
+      <c r="E425" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" t="s">
+        <v>6</v>
+      </c>
+      <c r="B426" t="s">
+        <v>413</v>
+      </c>
+      <c r="C426" t="s">
+        <v>595</v>
+      </c>
+      <c r="D426" t="s">
+        <v>743</v>
+      </c>
+      <c r="E426" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" t="s">
+        <v>6</v>
+      </c>
+      <c r="B427" t="s">
+        <v>421</v>
+      </c>
+      <c r="C427" t="s">
+        <v>450</v>
+      </c>
+      <c r="D427" t="s">
+        <v>744</v>
+      </c>
+      <c r="E427" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5">
+      <c r="A428" t="s">
+        <v>6</v>
+      </c>
+      <c r="B428" t="s">
+        <v>422</v>
+      </c>
+      <c r="C428" t="s">
+        <v>601</v>
+      </c>
+      <c r="D428" t="s">
+        <v>744</v>
+      </c>
+      <c r="E428" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
+      <c r="A429" t="s">
+        <v>6</v>
+      </c>
+      <c r="B429" t="s">
+        <v>423</v>
+      </c>
+      <c r="C429" t="s">
+        <v>542</v>
+      </c>
+      <c r="D429" t="s">
+        <v>744</v>
+      </c>
+      <c r="E429" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" t="s">
+        <v>6</v>
+      </c>
+      <c r="B430" t="s">
+        <v>413</v>
+      </c>
+      <c r="C430" t="s">
+        <v>595</v>
+      </c>
+      <c r="D430" t="s">
+        <v>744</v>
+      </c>
+      <c r="E430" t="s">
+        <v>745</v>
       </c>
     </row>
   </sheetData>
